--- a/Data Files/Input Validation/08. selecttype/Auto_SelectType_C9.xlsx
+++ b/Data Files/Input Validation/08. selecttype/Auto_SelectType_C9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82057B4-B096-4CD3-955D-08D7699F0106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C665E0-40B3-411B-9A86-E91B50F751A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -210,7 +210,7 @@
     <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/08. selecttype/Auto_SelectType_C9.xlsx
+++ b/Data Files/Input Validation/08. selecttype/Auto_SelectType_C9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\08. selecttype\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94553DB1-BF5C-4355-A623-0E589594FA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2084553-6EEE-41CB-8FE9-A462242C2655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -207,10 +207,10 @@
     <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>effectiveDate</t>
   </si>
   <si>
-    <t>effectiveDate</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>
@@ -653,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">

--- a/Data Files/Input Validation/08. selecttype/Auto_SelectType_C9.xlsx
+++ b/Data Files/Input Validation/08. selecttype/Auto_SelectType_C9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\08. selecttype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2084553-6EEE-41CB-8FE9-A462242C2655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DA948D-2A81-4E8C-9E4A-3126BFA75EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="1776" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>typeCode</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -584,8 +587,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XFD996"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN7" sqref="AN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,10 +856,10 @@
       </c>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
-      <c r="AN2" s="3" t="s">
-        <v>45</v>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="2" t="s">
+        <v>62</v>
       </c>
-      <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="2"/>

--- a/Data Files/Input Validation/08. selecttype/Auto_SelectType_C9.xlsx
+++ b/Data Files/Input Validation/08. selecttype/Auto_SelectType_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\08. selecttype\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DA948D-2A81-4E8C-9E4A-3126BFA75EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F93B69-C1C4-44A3-82FD-928C399E0828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="1776" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -210,10 +210,10 @@
     <t>effectiveDate</t>
   </si>
   <si>
-    <t>2023-10-16</t>
+    <t/>
   </si>
   <si>
-    <t/>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -774,7 +774,7 @@
         <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
@@ -858,7 +858,7 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="3"/>
       <c r="AO2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>

--- a/Data Files/Input Validation/08. selecttype/Auto_SelectType_C9.xlsx
+++ b/Data Files/Input Validation/08. selecttype/Auto_SelectType_C9.xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Input Validation\08. selecttype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F93B69-C1C4-44A3-82FD-928C399E0828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C411BE-EFC5-4BC2-A590-D61B0F86C5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>typeCode</t>
   </si>
@@ -213,7 +213,10 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
+  </si>
+  <si>
+    <t>2023-08-22</t>
   </si>
 </sst>
 </file>
@@ -587,56 +590,55 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XFD996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN7" sqref="AN7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="13.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="11" width="10.44140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.77734375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.44140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.109375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" style="1" customWidth="1"/>
     <col min="20" max="20" width="22" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="6.88671875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11.44140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="13.88671875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="4.5546875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.33203125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="10.6640625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="13.44140625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="14.109375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="11.6640625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="8.6640625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="8.77734375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="6.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="4.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="14.140625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="11.7109375" style="1" customWidth="1"/>
+    <col min="33" max="34" width="8.7109375" style="1" customWidth="1"/>
     <col min="35" max="35" width="9" style="1" customWidth="1"/>
-    <col min="36" max="36" width="42.77734375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="42.7109375" style="1" customWidth="1"/>
     <col min="37" max="37" width="10" style="1" customWidth="1"/>
-    <col min="38" max="38" width="12.77734375" style="1" customWidth="1"/>
-    <col min="39" max="39" width="14.44140625" style="1" customWidth="1"/>
-    <col min="40" max="40" width="11.6640625" style="1" customWidth="1"/>
-    <col min="41" max="16375" width="2.6640625" style="1"/>
-    <col min="16380" max="16380" width="11.5546875" customWidth="1"/>
-    <col min="16381" max="16384" width="11.5546875" style="1" customWidth="1"/>
+    <col min="38" max="38" width="12.7109375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="14.42578125" style="1" customWidth="1"/>
+    <col min="40" max="40" width="11.7109375" style="1" customWidth="1"/>
+    <col min="41" max="16375" width="2.7109375" style="1"/>
+    <col min="16380" max="16380" width="11.5703125" customWidth="1"/>
+    <col min="16381" max="16384" width="11.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45 16381:16384" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45 16381:16384" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -763,7 +765,7 @@
       <c r="AR1" s="2"/>
       <c r="AS1" s="2"/>
     </row>
-    <row r="2" spans="1:45 16381:16384" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45 16381:16384" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -781,7 +783,7 @@
         <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -865,7 +867,7 @@
       <c r="AR2" s="2"/>
       <c r="AS2" s="2"/>
     </row>
-    <row r="3" spans="1:45 16381:16384" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45 16381:16384" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -916,7 +918,7 @@
       <c r="XFC3"/>
       <c r="XFD3"/>
     </row>
-    <row r="4" spans="1:45 16381:16384" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45 16381:16384" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -963,7 +965,7 @@
       <c r="AR4" s="2"/>
       <c r="AS4" s="2"/>
     </row>
-    <row r="5" spans="1:45 16381:16384" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45 16381:16384" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1010,7 +1012,7 @@
       <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
     </row>
-    <row r="6" spans="1:45 16381:16384" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45 16381:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1057,7 +1059,7 @@
       <c r="AR6" s="2"/>
       <c r="AS6" s="2"/>
     </row>
-    <row r="7" spans="1:45 16381:16384" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45 16381:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1103,7 +1105,7 @@
       <c r="AR7" s="2"/>
       <c r="AS7" s="2"/>
     </row>
-    <row r="8" spans="1:45 16381:16384" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45 16381:16384" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1149,7 +1151,7 @@
       <c r="AR8" s="2"/>
       <c r="AS8" s="2"/>
     </row>
-    <row r="9" spans="1:45 16381:16384" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45 16381:16384" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1195,7 +1197,7 @@
       <c r="AR9" s="2"/>
       <c r="AS9" s="2"/>
     </row>
-    <row r="10" spans="1:45 16381:16384" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45 16381:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1241,7 +1243,7 @@
       <c r="AR10" s="2"/>
       <c r="AS10" s="2"/>
     </row>
-    <row r="11" spans="1:45 16381:16384" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45 16381:16384" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1287,7 +1289,7 @@
       <c r="AR11" s="2"/>
       <c r="AS11" s="2"/>
     </row>
-    <row r="12" spans="1:45 16381:16384" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45 16381:16384" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1334,7 +1336,7 @@
       <c r="AR12" s="2"/>
       <c r="AS12" s="2"/>
     </row>
-    <row r="13" spans="1:45 16381:16384" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45 16381:16384" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1380,7 +1382,7 @@
       <c r="AR13" s="2"/>
       <c r="AS13" s="2"/>
     </row>
-    <row r="14" spans="1:45 16381:16384" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45 16381:16384" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1427,7 +1429,7 @@
       <c r="AR14" s="2"/>
       <c r="AS14" s="2"/>
     </row>
-    <row r="15" spans="1:45 16381:16384" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45 16381:16384" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1474,7 +1476,7 @@
       <c r="AR15" s="2"/>
       <c r="AS15" s="2"/>
     </row>
-    <row r="16" spans="1:45 16381:16384" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45 16381:16384" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1521,7 +1523,7 @@
       <c r="AR16" s="2"/>
       <c r="AS16" s="2"/>
     </row>
-    <row r="17" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1568,7 +1570,7 @@
       <c r="AR17" s="2"/>
       <c r="AS17" s="2"/>
     </row>
-    <row r="18" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1615,7 +1617,7 @@
       <c r="AR18" s="2"/>
       <c r="AS18" s="2"/>
     </row>
-    <row r="19" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1662,7 +1664,7 @@
       <c r="AR19" s="2"/>
       <c r="AS19" s="2"/>
     </row>
-    <row r="20" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1709,7 +1711,7 @@
       <c r="AR20" s="2"/>
       <c r="AS20" s="2"/>
     </row>
-    <row r="21" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1756,7 +1758,7 @@
       <c r="AR21" s="2"/>
       <c r="AS21" s="2"/>
     </row>
-    <row r="22" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1803,7 +1805,7 @@
       <c r="AR22" s="2"/>
       <c r="AS22" s="2"/>
     </row>
-    <row r="23" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1850,7 +1852,7 @@
       <c r="AR23" s="2"/>
       <c r="AS23" s="2"/>
     </row>
-    <row r="24" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1897,7 +1899,7 @@
       <c r="AR24" s="2"/>
       <c r="AS24" s="2"/>
     </row>
-    <row r="25" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1944,7 +1946,7 @@
       <c r="AR25" s="2"/>
       <c r="AS25" s="2"/>
     </row>
-    <row r="26" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1991,7 +1993,7 @@
       <c r="AR26" s="2"/>
       <c r="AS26" s="2"/>
     </row>
-    <row r="27" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2038,7 +2040,7 @@
       <c r="AR27" s="2"/>
       <c r="AS27" s="2"/>
     </row>
-    <row r="28" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2085,7 +2087,7 @@
       <c r="AR28" s="2"/>
       <c r="AS28" s="2"/>
     </row>
-    <row r="29" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2132,7 +2134,7 @@
       <c r="AR29" s="2"/>
       <c r="AS29" s="2"/>
     </row>
-    <row r="30" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2179,7 +2181,7 @@
       <c r="AR30" s="2"/>
       <c r="AS30" s="2"/>
     </row>
-    <row r="31" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2226,7 +2228,7 @@
       <c r="AR31" s="2"/>
       <c r="AS31" s="2"/>
     </row>
-    <row r="32" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2273,7 +2275,7 @@
       <c r="AR32" s="2"/>
       <c r="AS32" s="2"/>
     </row>
-    <row r="33" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2320,7 +2322,7 @@
       <c r="AR33" s="2"/>
       <c r="AS33" s="2"/>
     </row>
-    <row r="34" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2367,7 +2369,7 @@
       <c r="AR34" s="2"/>
       <c r="AS34" s="2"/>
     </row>
-    <row r="35" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2414,7 +2416,7 @@
       <c r="AR35" s="2"/>
       <c r="AS35" s="2"/>
     </row>
-    <row r="36" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2461,7 +2463,7 @@
       <c r="AR36" s="2"/>
       <c r="AS36" s="2"/>
     </row>
-    <row r="37" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2508,7 +2510,7 @@
       <c r="AR37" s="2"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2555,7 +2557,7 @@
       <c r="AR38" s="2"/>
       <c r="AS38" s="2"/>
     </row>
-    <row r="39" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2602,7 +2604,7 @@
       <c r="AR39" s="2"/>
       <c r="AS39" s="2"/>
     </row>
-    <row r="40" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2649,7 +2651,7 @@
       <c r="AR40" s="2"/>
       <c r="AS40" s="2"/>
     </row>
-    <row r="41" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2696,7 +2698,7 @@
       <c r="AR41" s="2"/>
       <c r="AS41" s="2"/>
     </row>
-    <row r="42" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2743,7 +2745,7 @@
       <c r="AR42" s="2"/>
       <c r="AS42" s="2"/>
     </row>
-    <row r="43" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2790,7 +2792,7 @@
       <c r="AR43" s="2"/>
       <c r="AS43" s="2"/>
     </row>
-    <row r="44" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2837,7 +2839,7 @@
       <c r="AR44" s="2"/>
       <c r="AS44" s="2"/>
     </row>
-    <row r="45" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2884,7 +2886,7 @@
       <c r="AR45" s="2"/>
       <c r="AS45" s="2"/>
     </row>
-    <row r="46" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2931,7 +2933,7 @@
       <c r="AR46" s="2"/>
       <c r="AS46" s="2"/>
     </row>
-    <row r="47" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2978,7 +2980,7 @@
       <c r="AR47" s="2"/>
       <c r="AS47" s="2"/>
     </row>
-    <row r="48" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3025,7 +3027,7 @@
       <c r="AR48" s="2"/>
       <c r="AS48" s="2"/>
     </row>
-    <row r="49" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3072,7 +3074,7 @@
       <c r="AR49" s="2"/>
       <c r="AS49" s="2"/>
     </row>
-    <row r="50" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3119,7 +3121,7 @@
       <c r="AR50" s="2"/>
       <c r="AS50" s="2"/>
     </row>
-    <row r="51" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3166,7 +3168,7 @@
       <c r="AR51" s="2"/>
       <c r="AS51" s="2"/>
     </row>
-    <row r="52" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3213,7 +3215,7 @@
       <c r="AR52" s="2"/>
       <c r="AS52" s="2"/>
     </row>
-    <row r="53" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3260,7 +3262,7 @@
       <c r="AR53" s="2"/>
       <c r="AS53" s="2"/>
     </row>
-    <row r="54" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3307,7 +3309,7 @@
       <c r="AR54" s="2"/>
       <c r="AS54" s="2"/>
     </row>
-    <row r="55" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3354,7 +3356,7 @@
       <c r="AR55" s="2"/>
       <c r="AS55" s="2"/>
     </row>
-    <row r="56" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3401,7 +3403,7 @@
       <c r="AR56" s="2"/>
       <c r="AS56" s="2"/>
     </row>
-    <row r="57" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3448,7 +3450,7 @@
       <c r="AR57" s="2"/>
       <c r="AS57" s="2"/>
     </row>
-    <row r="58" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3495,7 +3497,7 @@
       <c r="AR58" s="2"/>
       <c r="AS58" s="2"/>
     </row>
-    <row r="59" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3542,7 +3544,7 @@
       <c r="AR59" s="2"/>
       <c r="AS59" s="2"/>
     </row>
-    <row r="60" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3589,7 +3591,7 @@
       <c r="AR60" s="2"/>
       <c r="AS60" s="2"/>
     </row>
-    <row r="61" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3636,7 +3638,7 @@
       <c r="AR61" s="2"/>
       <c r="AS61" s="2"/>
     </row>
-    <row r="62" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3683,7 +3685,7 @@
       <c r="AR62" s="2"/>
       <c r="AS62" s="2"/>
     </row>
-    <row r="63" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3730,7 +3732,7 @@
       <c r="AR63" s="2"/>
       <c r="AS63" s="2"/>
     </row>
-    <row r="64" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3777,7 +3779,7 @@
       <c r="AR64" s="2"/>
       <c r="AS64" s="2"/>
     </row>
-    <row r="65" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3824,7 +3826,7 @@
       <c r="AR65" s="2"/>
       <c r="AS65" s="2"/>
     </row>
-    <row r="66" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3871,7 +3873,7 @@
       <c r="AR66" s="2"/>
       <c r="AS66" s="2"/>
     </row>
-    <row r="67" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3918,7 +3920,7 @@
       <c r="AR67" s="2"/>
       <c r="AS67" s="2"/>
     </row>
-    <row r="68" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3965,7 +3967,7 @@
       <c r="AR68" s="2"/>
       <c r="AS68" s="2"/>
     </row>
-    <row r="69" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4012,7 +4014,7 @@
       <c r="AR69" s="2"/>
       <c r="AS69" s="2"/>
     </row>
-    <row r="70" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4059,7 +4061,7 @@
       <c r="AR70" s="2"/>
       <c r="AS70" s="2"/>
     </row>
-    <row r="71" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4106,7 +4108,7 @@
       <c r="AR71" s="2"/>
       <c r="AS71" s="2"/>
     </row>
-    <row r="72" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4153,7 +4155,7 @@
       <c r="AR72" s="2"/>
       <c r="AS72" s="2"/>
     </row>
-    <row r="73" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4200,7 +4202,7 @@
       <c r="AR73" s="2"/>
       <c r="AS73" s="2"/>
     </row>
-    <row r="74" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4247,7 +4249,7 @@
       <c r="AR74" s="2"/>
       <c r="AS74" s="2"/>
     </row>
-    <row r="75" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4294,7 +4296,7 @@
       <c r="AR75" s="2"/>
       <c r="AS75" s="2"/>
     </row>
-    <row r="76" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4341,7 +4343,7 @@
       <c r="AR76" s="2"/>
       <c r="AS76" s="2"/>
     </row>
-    <row r="77" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4388,7 +4390,7 @@
       <c r="AR77" s="2"/>
       <c r="AS77" s="2"/>
     </row>
-    <row r="78" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4435,7 +4437,7 @@
       <c r="AR78" s="2"/>
       <c r="AS78" s="2"/>
     </row>
-    <row r="79" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4482,7 +4484,7 @@
       <c r="AR79" s="2"/>
       <c r="AS79" s="2"/>
     </row>
-    <row r="80" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4529,7 +4531,7 @@
       <c r="AR80" s="2"/>
       <c r="AS80" s="2"/>
     </row>
-    <row r="81" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4576,7 +4578,7 @@
       <c r="AR81" s="2"/>
       <c r="AS81" s="2"/>
     </row>
-    <row r="82" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4623,7 +4625,7 @@
       <c r="AR82" s="2"/>
       <c r="AS82" s="2"/>
     </row>
-    <row r="83" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4670,7 +4672,7 @@
       <c r="AR83" s="2"/>
       <c r="AS83" s="2"/>
     </row>
-    <row r="84" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4717,7 +4719,7 @@
       <c r="AR84" s="2"/>
       <c r="AS84" s="2"/>
     </row>
-    <row r="85" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4764,7 +4766,7 @@
       <c r="AR85" s="2"/>
       <c r="AS85" s="2"/>
     </row>
-    <row r="86" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4811,7 +4813,7 @@
       <c r="AR86" s="2"/>
       <c r="AS86" s="2"/>
     </row>
-    <row r="87" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4858,7 +4860,7 @@
       <c r="AR87" s="2"/>
       <c r="AS87" s="2"/>
     </row>
-    <row r="88" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4905,7 +4907,7 @@
       <c r="AR88" s="2"/>
       <c r="AS88" s="2"/>
     </row>
-    <row r="89" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4952,7 +4954,7 @@
       <c r="AR89" s="2"/>
       <c r="AS89" s="2"/>
     </row>
-    <row r="90" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4999,7 +5001,7 @@
       <c r="AR90" s="2"/>
       <c r="AS90" s="2"/>
     </row>
-    <row r="91" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5046,7 +5048,7 @@
       <c r="AR91" s="2"/>
       <c r="AS91" s="2"/>
     </row>
-    <row r="92" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5093,7 +5095,7 @@
       <c r="AR92" s="2"/>
       <c r="AS92" s="2"/>
     </row>
-    <row r="93" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5140,7 +5142,7 @@
       <c r="AR93" s="2"/>
       <c r="AS93" s="2"/>
     </row>
-    <row r="94" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5187,7 +5189,7 @@
       <c r="AR94" s="2"/>
       <c r="AS94" s="2"/>
     </row>
-    <row r="95" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5234,7 +5236,7 @@
       <c r="AR95" s="2"/>
       <c r="AS95" s="2"/>
     </row>
-    <row r="96" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5281,7 +5283,7 @@
       <c r="AR96" s="2"/>
       <c r="AS96" s="2"/>
     </row>
-    <row r="97" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5328,7 +5330,7 @@
       <c r="AR97" s="2"/>
       <c r="AS97" s="2"/>
     </row>
-    <row r="98" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5375,7 +5377,7 @@
       <c r="AR98" s="2"/>
       <c r="AS98" s="2"/>
     </row>
-    <row r="99" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5422,7 +5424,7 @@
       <c r="AR99" s="2"/>
       <c r="AS99" s="2"/>
     </row>
-    <row r="100" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5469,7 +5471,7 @@
       <c r="AR100" s="2"/>
       <c r="AS100" s="2"/>
     </row>
-    <row r="101" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5516,7 +5518,7 @@
       <c r="AR101" s="2"/>
       <c r="AS101" s="2"/>
     </row>
-    <row r="102" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5563,7 +5565,7 @@
       <c r="AR102" s="2"/>
       <c r="AS102" s="2"/>
     </row>
-    <row r="103" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5610,7 +5612,7 @@
       <c r="AR103" s="2"/>
       <c r="AS103" s="2"/>
     </row>
-    <row r="104" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5657,7 +5659,7 @@
       <c r="AR104" s="2"/>
       <c r="AS104" s="2"/>
     </row>
-    <row r="105" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5704,7 +5706,7 @@
       <c r="AR105" s="2"/>
       <c r="AS105" s="2"/>
     </row>
-    <row r="106" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5751,7 +5753,7 @@
       <c r="AR106" s="2"/>
       <c r="AS106" s="2"/>
     </row>
-    <row r="107" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5798,7 +5800,7 @@
       <c r="AR107" s="2"/>
       <c r="AS107" s="2"/>
     </row>
-    <row r="108" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5845,7 +5847,7 @@
       <c r="AR108" s="2"/>
       <c r="AS108" s="2"/>
     </row>
-    <row r="109" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5892,7 +5894,7 @@
       <c r="AR109" s="2"/>
       <c r="AS109" s="2"/>
     </row>
-    <row r="110" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5939,7 +5941,7 @@
       <c r="AR110" s="2"/>
       <c r="AS110" s="2"/>
     </row>
-    <row r="111" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5986,7 +5988,7 @@
       <c r="AR111" s="2"/>
       <c r="AS111" s="2"/>
     </row>
-    <row r="112" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6033,7 +6035,7 @@
       <c r="AR112" s="2"/>
       <c r="AS112" s="2"/>
     </row>
-    <row r="113" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6080,7 +6082,7 @@
       <c r="AR113" s="2"/>
       <c r="AS113" s="2"/>
     </row>
-    <row r="114" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6127,7 +6129,7 @@
       <c r="AR114" s="2"/>
       <c r="AS114" s="2"/>
     </row>
-    <row r="115" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6174,7 +6176,7 @@
       <c r="AR115" s="2"/>
       <c r="AS115" s="2"/>
     </row>
-    <row r="116" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6221,7 +6223,7 @@
       <c r="AR116" s="2"/>
       <c r="AS116" s="2"/>
     </row>
-    <row r="117" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6268,7 +6270,7 @@
       <c r="AR117" s="2"/>
       <c r="AS117" s="2"/>
     </row>
-    <row r="118" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6315,7 +6317,7 @@
       <c r="AR118" s="2"/>
       <c r="AS118" s="2"/>
     </row>
-    <row r="119" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6362,7 +6364,7 @@
       <c r="AR119" s="2"/>
       <c r="AS119" s="2"/>
     </row>
-    <row r="120" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6409,7 +6411,7 @@
       <c r="AR120" s="2"/>
       <c r="AS120" s="2"/>
     </row>
-    <row r="121" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6456,7 +6458,7 @@
       <c r="AR121" s="2"/>
       <c r="AS121" s="2"/>
     </row>
-    <row r="122" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6503,7 +6505,7 @@
       <c r="AR122" s="2"/>
       <c r="AS122" s="2"/>
     </row>
-    <row r="123" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6550,7 +6552,7 @@
       <c r="AR123" s="2"/>
       <c r="AS123" s="2"/>
     </row>
-    <row r="124" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6597,7 +6599,7 @@
       <c r="AR124" s="2"/>
       <c r="AS124" s="2"/>
     </row>
-    <row r="125" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6644,7 +6646,7 @@
       <c r="AR125" s="2"/>
       <c r="AS125" s="2"/>
     </row>
-    <row r="126" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6691,7 +6693,7 @@
       <c r="AR126" s="2"/>
       <c r="AS126" s="2"/>
     </row>
-    <row r="127" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6738,7 +6740,7 @@
       <c r="AR127" s="2"/>
       <c r="AS127" s="2"/>
     </row>
-    <row r="128" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6785,7 +6787,7 @@
       <c r="AR128" s="2"/>
       <c r="AS128" s="2"/>
     </row>
-    <row r="129" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6832,7 +6834,7 @@
       <c r="AR129" s="2"/>
       <c r="AS129" s="2"/>
     </row>
-    <row r="130" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -6879,7 +6881,7 @@
       <c r="AR130" s="2"/>
       <c r="AS130" s="2"/>
     </row>
-    <row r="131" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -6926,7 +6928,7 @@
       <c r="AR131" s="2"/>
       <c r="AS131" s="2"/>
     </row>
-    <row r="132" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6973,7 +6975,7 @@
       <c r="AR132" s="2"/>
       <c r="AS132" s="2"/>
     </row>
-    <row r="133" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -7020,7 +7022,7 @@
       <c r="AR133" s="2"/>
       <c r="AS133" s="2"/>
     </row>
-    <row r="134" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -7067,7 +7069,7 @@
       <c r="AR134" s="2"/>
       <c r="AS134" s="2"/>
     </row>
-    <row r="135" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -7114,7 +7116,7 @@
       <c r="AR135" s="2"/>
       <c r="AS135" s="2"/>
     </row>
-    <row r="136" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -7161,7 +7163,7 @@
       <c r="AR136" s="2"/>
       <c r="AS136" s="2"/>
     </row>
-    <row r="137" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -7208,7 +7210,7 @@
       <c r="AR137" s="2"/>
       <c r="AS137" s="2"/>
     </row>
-    <row r="138" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -7255,7 +7257,7 @@
       <c r="AR138" s="2"/>
       <c r="AS138" s="2"/>
     </row>
-    <row r="139" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -7302,7 +7304,7 @@
       <c r="AR139" s="2"/>
       <c r="AS139" s="2"/>
     </row>
-    <row r="140" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -7349,7 +7351,7 @@
       <c r="AR140" s="2"/>
       <c r="AS140" s="2"/>
     </row>
-    <row r="141" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -7396,7 +7398,7 @@
       <c r="AR141" s="2"/>
       <c r="AS141" s="2"/>
     </row>
-    <row r="142" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -7443,7 +7445,7 @@
       <c r="AR142" s="2"/>
       <c r="AS142" s="2"/>
     </row>
-    <row r="143" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -7490,7 +7492,7 @@
       <c r="AR143" s="2"/>
       <c r="AS143" s="2"/>
     </row>
-    <row r="144" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -7537,7 +7539,7 @@
       <c r="AR144" s="2"/>
       <c r="AS144" s="2"/>
     </row>
-    <row r="145" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -7584,7 +7586,7 @@
       <c r="AR145" s="2"/>
       <c r="AS145" s="2"/>
     </row>
-    <row r="146" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -7631,7 +7633,7 @@
       <c r="AR146" s="2"/>
       <c r="AS146" s="2"/>
     </row>
-    <row r="147" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -7678,7 +7680,7 @@
       <c r="AR147" s="2"/>
       <c r="AS147" s="2"/>
     </row>
-    <row r="148" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -7725,7 +7727,7 @@
       <c r="AR148" s="2"/>
       <c r="AS148" s="2"/>
     </row>
-    <row r="149" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -7772,7 +7774,7 @@
       <c r="AR149" s="2"/>
       <c r="AS149" s="2"/>
     </row>
-    <row r="150" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -7819,7 +7821,7 @@
       <c r="AR150" s="2"/>
       <c r="AS150" s="2"/>
     </row>
-    <row r="151" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -7866,7 +7868,7 @@
       <c r="AR151" s="2"/>
       <c r="AS151" s="2"/>
     </row>
-    <row r="152" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -7913,7 +7915,7 @@
       <c r="AR152" s="2"/>
       <c r="AS152" s="2"/>
     </row>
-    <row r="153" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -7960,7 +7962,7 @@
       <c r="AR153" s="2"/>
       <c r="AS153" s="2"/>
     </row>
-    <row r="154" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -8007,7 +8009,7 @@
       <c r="AR154" s="2"/>
       <c r="AS154" s="2"/>
     </row>
-    <row r="155" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -8054,7 +8056,7 @@
       <c r="AR155" s="2"/>
       <c r="AS155" s="2"/>
     </row>
-    <row r="156" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -8101,7 +8103,7 @@
       <c r="AR156" s="2"/>
       <c r="AS156" s="2"/>
     </row>
-    <row r="157" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -8148,7 +8150,7 @@
       <c r="AR157" s="2"/>
       <c r="AS157" s="2"/>
     </row>
-    <row r="158" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -8195,7 +8197,7 @@
       <c r="AR158" s="2"/>
       <c r="AS158" s="2"/>
     </row>
-    <row r="159" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -8242,7 +8244,7 @@
       <c r="AR159" s="2"/>
       <c r="AS159" s="2"/>
     </row>
-    <row r="160" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -8289,7 +8291,7 @@
       <c r="AR160" s="2"/>
       <c r="AS160" s="2"/>
     </row>
-    <row r="161" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -8336,7 +8338,7 @@
       <c r="AR161" s="2"/>
       <c r="AS161" s="2"/>
     </row>
-    <row r="162" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -8383,7 +8385,7 @@
       <c r="AR162" s="2"/>
       <c r="AS162" s="2"/>
     </row>
-    <row r="163" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -8430,7 +8432,7 @@
       <c r="AR163" s="2"/>
       <c r="AS163" s="2"/>
     </row>
-    <row r="164" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -8477,7 +8479,7 @@
       <c r="AR164" s="2"/>
       <c r="AS164" s="2"/>
     </row>
-    <row r="165" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -8524,7 +8526,7 @@
       <c r="AR165" s="2"/>
       <c r="AS165" s="2"/>
     </row>
-    <row r="166" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -8571,7 +8573,7 @@
       <c r="AR166" s="2"/>
       <c r="AS166" s="2"/>
     </row>
-    <row r="167" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -8618,7 +8620,7 @@
       <c r="AR167" s="2"/>
       <c r="AS167" s="2"/>
     </row>
-    <row r="168" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -8665,7 +8667,7 @@
       <c r="AR168" s="2"/>
       <c r="AS168" s="2"/>
     </row>
-    <row r="169" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -8712,7 +8714,7 @@
       <c r="AR169" s="2"/>
       <c r="AS169" s="2"/>
     </row>
-    <row r="170" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -8759,7 +8761,7 @@
       <c r="AR170" s="2"/>
       <c r="AS170" s="2"/>
     </row>
-    <row r="171" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -8806,7 +8808,7 @@
       <c r="AR171" s="2"/>
       <c r="AS171" s="2"/>
     </row>
-    <row r="172" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -8853,7 +8855,7 @@
       <c r="AR172" s="2"/>
       <c r="AS172" s="2"/>
     </row>
-    <row r="173" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -8900,7 +8902,7 @@
       <c r="AR173" s="2"/>
       <c r="AS173" s="2"/>
     </row>
-    <row r="174" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -8947,7 +8949,7 @@
       <c r="AR174" s="2"/>
       <c r="AS174" s="2"/>
     </row>
-    <row r="175" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -8994,7 +8996,7 @@
       <c r="AR175" s="2"/>
       <c r="AS175" s="2"/>
     </row>
-    <row r="176" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -9041,7 +9043,7 @@
       <c r="AR176" s="2"/>
       <c r="AS176" s="2"/>
     </row>
-    <row r="177" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -9088,7 +9090,7 @@
       <c r="AR177" s="2"/>
       <c r="AS177" s="2"/>
     </row>
-    <row r="178" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -9135,7 +9137,7 @@
       <c r="AR178" s="2"/>
       <c r="AS178" s="2"/>
     </row>
-    <row r="179" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -9182,7 +9184,7 @@
       <c r="AR179" s="2"/>
       <c r="AS179" s="2"/>
     </row>
-    <row r="180" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -9229,7 +9231,7 @@
       <c r="AR180" s="2"/>
       <c r="AS180" s="2"/>
     </row>
-    <row r="181" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -9276,7 +9278,7 @@
       <c r="AR181" s="2"/>
       <c r="AS181" s="2"/>
     </row>
-    <row r="182" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -9323,7 +9325,7 @@
       <c r="AR182" s="2"/>
       <c r="AS182" s="2"/>
     </row>
-    <row r="183" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -9370,7 +9372,7 @@
       <c r="AR183" s="2"/>
       <c r="AS183" s="2"/>
     </row>
-    <row r="184" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -9417,7 +9419,7 @@
       <c r="AR184" s="2"/>
       <c r="AS184" s="2"/>
     </row>
-    <row r="185" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -9464,7 +9466,7 @@
       <c r="AR185" s="2"/>
       <c r="AS185" s="2"/>
     </row>
-    <row r="186" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -9511,7 +9513,7 @@
       <c r="AR186" s="2"/>
       <c r="AS186" s="2"/>
     </row>
-    <row r="187" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -9558,7 +9560,7 @@
       <c r="AR187" s="2"/>
       <c r="AS187" s="2"/>
     </row>
-    <row r="188" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -9605,7 +9607,7 @@
       <c r="AR188" s="2"/>
       <c r="AS188" s="2"/>
     </row>
-    <row r="189" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -9652,7 +9654,7 @@
       <c r="AR189" s="2"/>
       <c r="AS189" s="2"/>
     </row>
-    <row r="190" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -9699,7 +9701,7 @@
       <c r="AR190" s="2"/>
       <c r="AS190" s="2"/>
     </row>
-    <row r="191" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -9746,7 +9748,7 @@
       <c r="AR191" s="2"/>
       <c r="AS191" s="2"/>
     </row>
-    <row r="192" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -9793,7 +9795,7 @@
       <c r="AR192" s="2"/>
       <c r="AS192" s="2"/>
     </row>
-    <row r="193" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -9840,7 +9842,7 @@
       <c r="AR193" s="2"/>
       <c r="AS193" s="2"/>
     </row>
-    <row r="194" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -9887,7 +9889,7 @@
       <c r="AR194" s="2"/>
       <c r="AS194" s="2"/>
     </row>
-    <row r="195" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -9934,7 +9936,7 @@
       <c r="AR195" s="2"/>
       <c r="AS195" s="2"/>
     </row>
-    <row r="196" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -9981,7 +9983,7 @@
       <c r="AR196" s="2"/>
       <c r="AS196" s="2"/>
     </row>
-    <row r="197" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -10028,7 +10030,7 @@
       <c r="AR197" s="2"/>
       <c r="AS197" s="2"/>
     </row>
-    <row r="198" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -10075,7 +10077,7 @@
       <c r="AR198" s="2"/>
       <c r="AS198" s="2"/>
     </row>
-    <row r="199" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -10122,7 +10124,7 @@
       <c r="AR199" s="2"/>
       <c r="AS199" s="2"/>
     </row>
-    <row r="200" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -10169,7 +10171,7 @@
       <c r="AR200" s="2"/>
       <c r="AS200" s="2"/>
     </row>
-    <row r="201" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -10216,7 +10218,7 @@
       <c r="AR201" s="2"/>
       <c r="AS201" s="2"/>
     </row>
-    <row r="202" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -10263,7 +10265,7 @@
       <c r="AR202" s="2"/>
       <c r="AS202" s="2"/>
     </row>
-    <row r="203" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -10310,7 +10312,7 @@
       <c r="AR203" s="2"/>
       <c r="AS203" s="2"/>
     </row>
-    <row r="204" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -10357,7 +10359,7 @@
       <c r="AR204" s="2"/>
       <c r="AS204" s="2"/>
     </row>
-    <row r="205" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -10404,7 +10406,7 @@
       <c r="AR205" s="2"/>
       <c r="AS205" s="2"/>
     </row>
-    <row r="206" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -10451,7 +10453,7 @@
       <c r="AR206" s="2"/>
       <c r="AS206" s="2"/>
     </row>
-    <row r="207" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -10498,7 +10500,7 @@
       <c r="AR207" s="2"/>
       <c r="AS207" s="2"/>
     </row>
-    <row r="208" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -10545,7 +10547,7 @@
       <c r="AR208" s="2"/>
       <c r="AS208" s="2"/>
     </row>
-    <row r="209" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -10592,7 +10594,7 @@
       <c r="AR209" s="2"/>
       <c r="AS209" s="2"/>
     </row>
-    <row r="210" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -10639,7 +10641,7 @@
       <c r="AR210" s="2"/>
       <c r="AS210" s="2"/>
     </row>
-    <row r="211" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -10686,7 +10688,7 @@
       <c r="AR211" s="2"/>
       <c r="AS211" s="2"/>
     </row>
-    <row r="212" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -10733,7 +10735,7 @@
       <c r="AR212" s="2"/>
       <c r="AS212" s="2"/>
     </row>
-    <row r="213" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -10780,7 +10782,7 @@
       <c r="AR213" s="2"/>
       <c r="AS213" s="2"/>
     </row>
-    <row r="214" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -10827,7 +10829,7 @@
       <c r="AR214" s="2"/>
       <c r="AS214" s="2"/>
     </row>
-    <row r="215" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -10874,7 +10876,7 @@
       <c r="AR215" s="2"/>
       <c r="AS215" s="2"/>
     </row>
-    <row r="216" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -10921,7 +10923,7 @@
       <c r="AR216" s="2"/>
       <c r="AS216" s="2"/>
     </row>
-    <row r="217" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -10968,7 +10970,7 @@
       <c r="AR217" s="2"/>
       <c r="AS217" s="2"/>
     </row>
-    <row r="218" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -11015,7 +11017,7 @@
       <c r="AR218" s="2"/>
       <c r="AS218" s="2"/>
     </row>
-    <row r="219" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -11062,7 +11064,7 @@
       <c r="AR219" s="2"/>
       <c r="AS219" s="2"/>
     </row>
-    <row r="220" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -11109,7 +11111,7 @@
       <c r="AR220" s="2"/>
       <c r="AS220" s="2"/>
     </row>
-    <row r="221" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -11156,7 +11158,7 @@
       <c r="AR221" s="2"/>
       <c r="AS221" s="2"/>
     </row>
-    <row r="222" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -11203,7 +11205,7 @@
       <c r="AR222" s="2"/>
       <c r="AS222" s="2"/>
     </row>
-    <row r="223" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -11250,7 +11252,7 @@
       <c r="AR223" s="2"/>
       <c r="AS223" s="2"/>
     </row>
-    <row r="224" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -11297,7 +11299,7 @@
       <c r="AR224" s="2"/>
       <c r="AS224" s="2"/>
     </row>
-    <row r="225" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -11344,7 +11346,7 @@
       <c r="AR225" s="2"/>
       <c r="AS225" s="2"/>
     </row>
-    <row r="226" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -11391,7 +11393,7 @@
       <c r="AR226" s="2"/>
       <c r="AS226" s="2"/>
     </row>
-    <row r="227" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -11438,7 +11440,7 @@
       <c r="AR227" s="2"/>
       <c r="AS227" s="2"/>
     </row>
-    <row r="228" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -11485,7 +11487,7 @@
       <c r="AR228" s="2"/>
       <c r="AS228" s="2"/>
     </row>
-    <row r="229" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -11532,7 +11534,7 @@
       <c r="AR229" s="2"/>
       <c r="AS229" s="2"/>
     </row>
-    <row r="230" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -11579,7 +11581,7 @@
       <c r="AR230" s="2"/>
       <c r="AS230" s="2"/>
     </row>
-    <row r="231" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -11626,7 +11628,7 @@
       <c r="AR231" s="2"/>
       <c r="AS231" s="2"/>
     </row>
-    <row r="232" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -11673,7 +11675,7 @@
       <c r="AR232" s="2"/>
       <c r="AS232" s="2"/>
     </row>
-    <row r="233" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -11720,7 +11722,7 @@
       <c r="AR233" s="2"/>
       <c r="AS233" s="2"/>
     </row>
-    <row r="234" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -11767,7 +11769,7 @@
       <c r="AR234" s="2"/>
       <c r="AS234" s="2"/>
     </row>
-    <row r="235" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -11814,7 +11816,7 @@
       <c r="AR235" s="2"/>
       <c r="AS235" s="2"/>
     </row>
-    <row r="236" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -11861,7 +11863,7 @@
       <c r="AR236" s="2"/>
       <c r="AS236" s="2"/>
     </row>
-    <row r="237" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -11908,7 +11910,7 @@
       <c r="AR237" s="2"/>
       <c r="AS237" s="2"/>
     </row>
-    <row r="238" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -11955,7 +11957,7 @@
       <c r="AR238" s="2"/>
       <c r="AS238" s="2"/>
     </row>
-    <row r="239" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -12002,7 +12004,7 @@
       <c r="AR239" s="2"/>
       <c r="AS239" s="2"/>
     </row>
-    <row r="240" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -12049,7 +12051,7 @@
       <c r="AR240" s="2"/>
       <c r="AS240" s="2"/>
     </row>
-    <row r="241" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -12096,7 +12098,7 @@
       <c r="AR241" s="2"/>
       <c r="AS241" s="2"/>
     </row>
-    <row r="242" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -12143,7 +12145,7 @@
       <c r="AR242" s="2"/>
       <c r="AS242" s="2"/>
     </row>
-    <row r="243" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -12190,7 +12192,7 @@
       <c r="AR243" s="2"/>
       <c r="AS243" s="2"/>
     </row>
-    <row r="244" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -12237,7 +12239,7 @@
       <c r="AR244" s="2"/>
       <c r="AS244" s="2"/>
     </row>
-    <row r="245" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -12284,7 +12286,7 @@
       <c r="AR245" s="2"/>
       <c r="AS245" s="2"/>
     </row>
-    <row r="246" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -12331,7 +12333,7 @@
       <c r="AR246" s="2"/>
       <c r="AS246" s="2"/>
     </row>
-    <row r="247" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -12378,7 +12380,7 @@
       <c r="AR247" s="2"/>
       <c r="AS247" s="2"/>
     </row>
-    <row r="248" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -12425,7 +12427,7 @@
       <c r="AR248" s="2"/>
       <c r="AS248" s="2"/>
     </row>
-    <row r="249" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -12472,7 +12474,7 @@
       <c r="AR249" s="2"/>
       <c r="AS249" s="2"/>
     </row>
-    <row r="250" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -12519,7 +12521,7 @@
       <c r="AR250" s="2"/>
       <c r="AS250" s="2"/>
     </row>
-    <row r="251" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -12566,7 +12568,7 @@
       <c r="AR251" s="2"/>
       <c r="AS251" s="2"/>
     </row>
-    <row r="252" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -12613,7 +12615,7 @@
       <c r="AR252" s="2"/>
       <c r="AS252" s="2"/>
     </row>
-    <row r="253" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -12660,7 +12662,7 @@
       <c r="AR253" s="2"/>
       <c r="AS253" s="2"/>
     </row>
-    <row r="254" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -12707,7 +12709,7 @@
       <c r="AR254" s="2"/>
       <c r="AS254" s="2"/>
     </row>
-    <row r="255" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -12754,7 +12756,7 @@
       <c r="AR255" s="2"/>
       <c r="AS255" s="2"/>
     </row>
-    <row r="256" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -12801,7 +12803,7 @@
       <c r="AR256" s="2"/>
       <c r="AS256" s="2"/>
     </row>
-    <row r="257" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -12848,7 +12850,7 @@
       <c r="AR257" s="2"/>
       <c r="AS257" s="2"/>
     </row>
-    <row r="258" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -12895,7 +12897,7 @@
       <c r="AR258" s="2"/>
       <c r="AS258" s="2"/>
     </row>
-    <row r="259" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -12942,7 +12944,7 @@
       <c r="AR259" s="2"/>
       <c r="AS259" s="2"/>
     </row>
-    <row r="260" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -12989,7 +12991,7 @@
       <c r="AR260" s="2"/>
       <c r="AS260" s="2"/>
     </row>
-    <row r="261" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -13036,7 +13038,7 @@
       <c r="AR261" s="2"/>
       <c r="AS261" s="2"/>
     </row>
-    <row r="262" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -13083,7 +13085,7 @@
       <c r="AR262" s="2"/>
       <c r="AS262" s="2"/>
     </row>
-    <row r="263" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -13130,7 +13132,7 @@
       <c r="AR263" s="2"/>
       <c r="AS263" s="2"/>
     </row>
-    <row r="264" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -13177,7 +13179,7 @@
       <c r="AR264" s="2"/>
       <c r="AS264" s="2"/>
     </row>
-    <row r="265" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -13224,7 +13226,7 @@
       <c r="AR265" s="2"/>
       <c r="AS265" s="2"/>
     </row>
-    <row r="266" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -13271,7 +13273,7 @@
       <c r="AR266" s="2"/>
       <c r="AS266" s="2"/>
     </row>
-    <row r="267" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -13318,7 +13320,7 @@
       <c r="AR267" s="2"/>
       <c r="AS267" s="2"/>
     </row>
-    <row r="268" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -13365,7 +13367,7 @@
       <c r="AR268" s="2"/>
       <c r="AS268" s="2"/>
     </row>
-    <row r="269" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -13412,7 +13414,7 @@
       <c r="AR269" s="2"/>
       <c r="AS269" s="2"/>
     </row>
-    <row r="270" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -13459,7 +13461,7 @@
       <c r="AR270" s="2"/>
       <c r="AS270" s="2"/>
     </row>
-    <row r="271" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -13506,7 +13508,7 @@
       <c r="AR271" s="2"/>
       <c r="AS271" s="2"/>
     </row>
-    <row r="272" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -13553,7 +13555,7 @@
       <c r="AR272" s="2"/>
       <c r="AS272" s="2"/>
     </row>
-    <row r="273" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -13600,7 +13602,7 @@
       <c r="AR273" s="2"/>
       <c r="AS273" s="2"/>
     </row>
-    <row r="274" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -13647,7 +13649,7 @@
       <c r="AR274" s="2"/>
       <c r="AS274" s="2"/>
     </row>
-    <row r="275" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -13694,7 +13696,7 @@
       <c r="AR275" s="2"/>
       <c r="AS275" s="2"/>
     </row>
-    <row r="276" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -13741,7 +13743,7 @@
       <c r="AR276" s="2"/>
       <c r="AS276" s="2"/>
     </row>
-    <row r="277" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -13788,7 +13790,7 @@
       <c r="AR277" s="2"/>
       <c r="AS277" s="2"/>
     </row>
-    <row r="278" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -13835,7 +13837,7 @@
       <c r="AR278" s="2"/>
       <c r="AS278" s="2"/>
     </row>
-    <row r="279" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -13882,7 +13884,7 @@
       <c r="AR279" s="2"/>
       <c r="AS279" s="2"/>
     </row>
-    <row r="280" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -13929,7 +13931,7 @@
       <c r="AR280" s="2"/>
       <c r="AS280" s="2"/>
     </row>
-    <row r="281" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -13976,7 +13978,7 @@
       <c r="AR281" s="2"/>
       <c r="AS281" s="2"/>
     </row>
-    <row r="282" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -14023,7 +14025,7 @@
       <c r="AR282" s="2"/>
       <c r="AS282" s="2"/>
     </row>
-    <row r="283" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -14070,7 +14072,7 @@
       <c r="AR283" s="2"/>
       <c r="AS283" s="2"/>
     </row>
-    <row r="284" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -14117,7 +14119,7 @@
       <c r="AR284" s="2"/>
       <c r="AS284" s="2"/>
     </row>
-    <row r="285" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -14164,7 +14166,7 @@
       <c r="AR285" s="2"/>
       <c r="AS285" s="2"/>
     </row>
-    <row r="286" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -14211,7 +14213,7 @@
       <c r="AR286" s="2"/>
       <c r="AS286" s="2"/>
     </row>
-    <row r="287" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -14258,7 +14260,7 @@
       <c r="AR287" s="2"/>
       <c r="AS287" s="2"/>
     </row>
-    <row r="288" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -14305,7 +14307,7 @@
       <c r="AR288" s="2"/>
       <c r="AS288" s="2"/>
     </row>
-    <row r="289" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -14352,7 +14354,7 @@
       <c r="AR289" s="2"/>
       <c r="AS289" s="2"/>
     </row>
-    <row r="290" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -14399,7 +14401,7 @@
       <c r="AR290" s="2"/>
       <c r="AS290" s="2"/>
     </row>
-    <row r="291" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -14446,7 +14448,7 @@
       <c r="AR291" s="2"/>
       <c r="AS291" s="2"/>
     </row>
-    <row r="292" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -14493,7 +14495,7 @@
       <c r="AR292" s="2"/>
       <c r="AS292" s="2"/>
     </row>
-    <row r="293" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -14540,7 +14542,7 @@
       <c r="AR293" s="2"/>
       <c r="AS293" s="2"/>
     </row>
-    <row r="294" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -14587,7 +14589,7 @@
       <c r="AR294" s="2"/>
       <c r="AS294" s="2"/>
     </row>
-    <row r="295" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -14634,7 +14636,7 @@
       <c r="AR295" s="2"/>
       <c r="AS295" s="2"/>
     </row>
-    <row r="296" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -14681,7 +14683,7 @@
       <c r="AR296" s="2"/>
       <c r="AS296" s="2"/>
     </row>
-    <row r="297" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -14728,7 +14730,7 @@
       <c r="AR297" s="2"/>
       <c r="AS297" s="2"/>
     </row>
-    <row r="298" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -14775,7 +14777,7 @@
       <c r="AR298" s="2"/>
       <c r="AS298" s="2"/>
     </row>
-    <row r="299" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -14822,7 +14824,7 @@
       <c r="AR299" s="2"/>
       <c r="AS299" s="2"/>
     </row>
-    <row r="300" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -14869,7 +14871,7 @@
       <c r="AR300" s="2"/>
       <c r="AS300" s="2"/>
     </row>
-    <row r="301" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -14916,7 +14918,7 @@
       <c r="AR301" s="2"/>
       <c r="AS301" s="2"/>
     </row>
-    <row r="302" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -14963,7 +14965,7 @@
       <c r="AR302" s="2"/>
       <c r="AS302" s="2"/>
     </row>
-    <row r="303" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -15010,7 +15012,7 @@
       <c r="AR303" s="2"/>
       <c r="AS303" s="2"/>
     </row>
-    <row r="304" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -15057,7 +15059,7 @@
       <c r="AR304" s="2"/>
       <c r="AS304" s="2"/>
     </row>
-    <row r="305" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -15104,7 +15106,7 @@
       <c r="AR305" s="2"/>
       <c r="AS305" s="2"/>
     </row>
-    <row r="306" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -15151,7 +15153,7 @@
       <c r="AR306" s="2"/>
       <c r="AS306" s="2"/>
     </row>
-    <row r="307" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -15198,7 +15200,7 @@
       <c r="AR307" s="2"/>
       <c r="AS307" s="2"/>
     </row>
-    <row r="308" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -15245,7 +15247,7 @@
       <c r="AR308" s="2"/>
       <c r="AS308" s="2"/>
     </row>
-    <row r="309" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -15292,7 +15294,7 @@
       <c r="AR309" s="2"/>
       <c r="AS309" s="2"/>
     </row>
-    <row r="310" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -15339,7 +15341,7 @@
       <c r="AR310" s="2"/>
       <c r="AS310" s="2"/>
     </row>
-    <row r="311" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -15386,7 +15388,7 @@
       <c r="AR311" s="2"/>
       <c r="AS311" s="2"/>
     </row>
-    <row r="312" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -15433,7 +15435,7 @@
       <c r="AR312" s="2"/>
       <c r="AS312" s="2"/>
     </row>
-    <row r="313" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -15480,7 +15482,7 @@
       <c r="AR313" s="2"/>
       <c r="AS313" s="2"/>
     </row>
-    <row r="314" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -15527,7 +15529,7 @@
       <c r="AR314" s="2"/>
       <c r="AS314" s="2"/>
     </row>
-    <row r="315" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -15574,7 +15576,7 @@
       <c r="AR315" s="2"/>
       <c r="AS315" s="2"/>
     </row>
-    <row r="316" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -15621,7 +15623,7 @@
       <c r="AR316" s="2"/>
       <c r="AS316" s="2"/>
     </row>
-    <row r="317" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -15668,7 +15670,7 @@
       <c r="AR317" s="2"/>
       <c r="AS317" s="2"/>
     </row>
-    <row r="318" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -15715,7 +15717,7 @@
       <c r="AR318" s="2"/>
       <c r="AS318" s="2"/>
     </row>
-    <row r="319" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -15762,7 +15764,7 @@
       <c r="AR319" s="2"/>
       <c r="AS319" s="2"/>
     </row>
-    <row r="320" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -15809,7 +15811,7 @@
       <c r="AR320" s="2"/>
       <c r="AS320" s="2"/>
     </row>
-    <row r="321" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -15856,7 +15858,7 @@
       <c r="AR321" s="2"/>
       <c r="AS321" s="2"/>
     </row>
-    <row r="322" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -15903,7 +15905,7 @@
       <c r="AR322" s="2"/>
       <c r="AS322" s="2"/>
     </row>
-    <row r="323" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -15950,7 +15952,7 @@
       <c r="AR323" s="2"/>
       <c r="AS323" s="2"/>
     </row>
-    <row r="324" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -15997,7 +15999,7 @@
       <c r="AR324" s="2"/>
       <c r="AS324" s="2"/>
     </row>
-    <row r="325" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -16044,7 +16046,7 @@
       <c r="AR325" s="2"/>
       <c r="AS325" s="2"/>
     </row>
-    <row r="326" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -16091,7 +16093,7 @@
       <c r="AR326" s="2"/>
       <c r="AS326" s="2"/>
     </row>
-    <row r="327" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -16138,7 +16140,7 @@
       <c r="AR327" s="2"/>
       <c r="AS327" s="2"/>
     </row>
-    <row r="328" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -16185,7 +16187,7 @@
       <c r="AR328" s="2"/>
       <c r="AS328" s="2"/>
     </row>
-    <row r="329" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -16232,7 +16234,7 @@
       <c r="AR329" s="2"/>
       <c r="AS329" s="2"/>
     </row>
-    <row r="330" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -16279,7 +16281,7 @@
       <c r="AR330" s="2"/>
       <c r="AS330" s="2"/>
     </row>
-    <row r="331" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -16326,7 +16328,7 @@
       <c r="AR331" s="2"/>
       <c r="AS331" s="2"/>
     </row>
-    <row r="332" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -16373,7 +16375,7 @@
       <c r="AR332" s="2"/>
       <c r="AS332" s="2"/>
     </row>
-    <row r="333" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -16420,7 +16422,7 @@
       <c r="AR333" s="2"/>
       <c r="AS333" s="2"/>
     </row>
-    <row r="334" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -16467,7 +16469,7 @@
       <c r="AR334" s="2"/>
       <c r="AS334" s="2"/>
     </row>
-    <row r="335" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -16514,7 +16516,7 @@
       <c r="AR335" s="2"/>
       <c r="AS335" s="2"/>
     </row>
-    <row r="336" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -16561,7 +16563,7 @@
       <c r="AR336" s="2"/>
       <c r="AS336" s="2"/>
     </row>
-    <row r="337" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -16608,7 +16610,7 @@
       <c r="AR337" s="2"/>
       <c r="AS337" s="2"/>
     </row>
-    <row r="338" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -16655,7 +16657,7 @@
       <c r="AR338" s="2"/>
       <c r="AS338" s="2"/>
     </row>
-    <row r="339" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -16702,7 +16704,7 @@
       <c r="AR339" s="2"/>
       <c r="AS339" s="2"/>
     </row>
-    <row r="340" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -16749,7 +16751,7 @@
       <c r="AR340" s="2"/>
       <c r="AS340" s="2"/>
     </row>
-    <row r="341" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -16796,7 +16798,7 @@
       <c r="AR341" s="2"/>
       <c r="AS341" s="2"/>
     </row>
-    <row r="342" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -16843,7 +16845,7 @@
       <c r="AR342" s="2"/>
       <c r="AS342" s="2"/>
     </row>
-    <row r="343" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -16890,7 +16892,7 @@
       <c r="AR343" s="2"/>
       <c r="AS343" s="2"/>
     </row>
-    <row r="344" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -16937,7 +16939,7 @@
       <c r="AR344" s="2"/>
       <c r="AS344" s="2"/>
     </row>
-    <row r="345" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -16984,7 +16986,7 @@
       <c r="AR345" s="2"/>
       <c r="AS345" s="2"/>
     </row>
-    <row r="346" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -17031,7 +17033,7 @@
       <c r="AR346" s="2"/>
       <c r="AS346" s="2"/>
     </row>
-    <row r="347" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -17078,7 +17080,7 @@
       <c r="AR347" s="2"/>
       <c r="AS347" s="2"/>
     </row>
-    <row r="348" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -17125,7 +17127,7 @@
       <c r="AR348" s="2"/>
       <c r="AS348" s="2"/>
     </row>
-    <row r="349" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -17172,7 +17174,7 @@
       <c r="AR349" s="2"/>
       <c r="AS349" s="2"/>
     </row>
-    <row r="350" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -17219,7 +17221,7 @@
       <c r="AR350" s="2"/>
       <c r="AS350" s="2"/>
     </row>
-    <row r="351" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -17266,7 +17268,7 @@
       <c r="AR351" s="2"/>
       <c r="AS351" s="2"/>
     </row>
-    <row r="352" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -17313,7 +17315,7 @@
       <c r="AR352" s="2"/>
       <c r="AS352" s="2"/>
     </row>
-    <row r="353" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -17360,7 +17362,7 @@
       <c r="AR353" s="2"/>
       <c r="AS353" s="2"/>
     </row>
-    <row r="354" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -17407,7 +17409,7 @@
       <c r="AR354" s="2"/>
       <c r="AS354" s="2"/>
     </row>
-    <row r="355" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -17454,7 +17456,7 @@
       <c r="AR355" s="2"/>
       <c r="AS355" s="2"/>
     </row>
-    <row r="356" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -17501,7 +17503,7 @@
       <c r="AR356" s="2"/>
       <c r="AS356" s="2"/>
     </row>
-    <row r="357" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -17548,7 +17550,7 @@
       <c r="AR357" s="2"/>
       <c r="AS357" s="2"/>
     </row>
-    <row r="358" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -17595,7 +17597,7 @@
       <c r="AR358" s="2"/>
       <c r="AS358" s="2"/>
     </row>
-    <row r="359" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -17642,7 +17644,7 @@
       <c r="AR359" s="2"/>
       <c r="AS359" s="2"/>
     </row>
-    <row r="360" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -17689,7 +17691,7 @@
       <c r="AR360" s="2"/>
       <c r="AS360" s="2"/>
     </row>
-    <row r="361" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -17736,7 +17738,7 @@
       <c r="AR361" s="2"/>
       <c r="AS361" s="2"/>
     </row>
-    <row r="362" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -17783,7 +17785,7 @@
       <c r="AR362" s="2"/>
       <c r="AS362" s="2"/>
     </row>
-    <row r="363" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -17830,7 +17832,7 @@
       <c r="AR363" s="2"/>
       <c r="AS363" s="2"/>
     </row>
-    <row r="364" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -17877,7 +17879,7 @@
       <c r="AR364" s="2"/>
       <c r="AS364" s="2"/>
     </row>
-    <row r="365" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -17924,7 +17926,7 @@
       <c r="AR365" s="2"/>
       <c r="AS365" s="2"/>
     </row>
-    <row r="366" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -17971,7 +17973,7 @@
       <c r="AR366" s="2"/>
       <c r="AS366" s="2"/>
     </row>
-    <row r="367" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -18018,7 +18020,7 @@
       <c r="AR367" s="2"/>
       <c r="AS367" s="2"/>
     </row>
-    <row r="368" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -18065,7 +18067,7 @@
       <c r="AR368" s="2"/>
       <c r="AS368" s="2"/>
     </row>
-    <row r="369" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -18112,7 +18114,7 @@
       <c r="AR369" s="2"/>
       <c r="AS369" s="2"/>
     </row>
-    <row r="370" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -18159,7 +18161,7 @@
       <c r="AR370" s="2"/>
       <c r="AS370" s="2"/>
     </row>
-    <row r="371" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -18206,7 +18208,7 @@
       <c r="AR371" s="2"/>
       <c r="AS371" s="2"/>
     </row>
-    <row r="372" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -18253,7 +18255,7 @@
       <c r="AR372" s="2"/>
       <c r="AS372" s="2"/>
     </row>
-    <row r="373" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -18300,7 +18302,7 @@
       <c r="AR373" s="2"/>
       <c r="AS373" s="2"/>
     </row>
-    <row r="374" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -18347,7 +18349,7 @@
       <c r="AR374" s="2"/>
       <c r="AS374" s="2"/>
     </row>
-    <row r="375" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -18394,7 +18396,7 @@
       <c r="AR375" s="2"/>
       <c r="AS375" s="2"/>
     </row>
-    <row r="376" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -18441,7 +18443,7 @@
       <c r="AR376" s="2"/>
       <c r="AS376" s="2"/>
     </row>
-    <row r="377" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -18488,7 +18490,7 @@
       <c r="AR377" s="2"/>
       <c r="AS377" s="2"/>
     </row>
-    <row r="378" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -18535,7 +18537,7 @@
       <c r="AR378" s="2"/>
       <c r="AS378" s="2"/>
     </row>
-    <row r="379" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -18582,7 +18584,7 @@
       <c r="AR379" s="2"/>
       <c r="AS379" s="2"/>
     </row>
-    <row r="380" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -18629,7 +18631,7 @@
       <c r="AR380" s="2"/>
       <c r="AS380" s="2"/>
     </row>
-    <row r="381" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -18676,7 +18678,7 @@
       <c r="AR381" s="2"/>
       <c r="AS381" s="2"/>
     </row>
-    <row r="382" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -18723,7 +18725,7 @@
       <c r="AR382" s="2"/>
       <c r="AS382" s="2"/>
     </row>
-    <row r="383" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -18770,7 +18772,7 @@
       <c r="AR383" s="2"/>
       <c r="AS383" s="2"/>
     </row>
-    <row r="384" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -18817,7 +18819,7 @@
       <c r="AR384" s="2"/>
       <c r="AS384" s="2"/>
     </row>
-    <row r="385" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -18864,7 +18866,7 @@
       <c r="AR385" s="2"/>
       <c r="AS385" s="2"/>
     </row>
-    <row r="386" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -18911,7 +18913,7 @@
       <c r="AR386" s="2"/>
       <c r="AS386" s="2"/>
     </row>
-    <row r="387" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -18958,7 +18960,7 @@
       <c r="AR387" s="2"/>
       <c r="AS387" s="2"/>
     </row>
-    <row r="388" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -19005,7 +19007,7 @@
       <c r="AR388" s="2"/>
       <c r="AS388" s="2"/>
     </row>
-    <row r="389" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -19052,7 +19054,7 @@
       <c r="AR389" s="2"/>
       <c r="AS389" s="2"/>
     </row>
-    <row r="390" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -19099,7 +19101,7 @@
       <c r="AR390" s="2"/>
       <c r="AS390" s="2"/>
     </row>
-    <row r="391" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -19146,7 +19148,7 @@
       <c r="AR391" s="2"/>
       <c r="AS391" s="2"/>
     </row>
-    <row r="392" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -19193,7 +19195,7 @@
       <c r="AR392" s="2"/>
       <c r="AS392" s="2"/>
     </row>
-    <row r="393" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -19240,7 +19242,7 @@
       <c r="AR393" s="2"/>
       <c r="AS393" s="2"/>
     </row>
-    <row r="394" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -19287,7 +19289,7 @@
       <c r="AR394" s="2"/>
       <c r="AS394" s="2"/>
     </row>
-    <row r="395" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -19334,7 +19336,7 @@
       <c r="AR395" s="2"/>
       <c r="AS395" s="2"/>
     </row>
-    <row r="396" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -19381,7 +19383,7 @@
       <c r="AR396" s="2"/>
       <c r="AS396" s="2"/>
     </row>
-    <row r="397" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -19428,7 +19430,7 @@
       <c r="AR397" s="2"/>
       <c r="AS397" s="2"/>
     </row>
-    <row r="398" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -19475,7 +19477,7 @@
       <c r="AR398" s="2"/>
       <c r="AS398" s="2"/>
     </row>
-    <row r="399" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -19522,7 +19524,7 @@
       <c r="AR399" s="2"/>
       <c r="AS399" s="2"/>
     </row>
-    <row r="400" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -19569,7 +19571,7 @@
       <c r="AR400" s="2"/>
       <c r="AS400" s="2"/>
     </row>
-    <row r="401" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -19616,7 +19618,7 @@
       <c r="AR401" s="2"/>
       <c r="AS401" s="2"/>
     </row>
-    <row r="402" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -19663,7 +19665,7 @@
       <c r="AR402" s="2"/>
       <c r="AS402" s="2"/>
     </row>
-    <row r="403" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -19710,7 +19712,7 @@
       <c r="AR403" s="2"/>
       <c r="AS403" s="2"/>
     </row>
-    <row r="404" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -19757,7 +19759,7 @@
       <c r="AR404" s="2"/>
       <c r="AS404" s="2"/>
     </row>
-    <row r="405" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -19804,7 +19806,7 @@
       <c r="AR405" s="2"/>
       <c r="AS405" s="2"/>
     </row>
-    <row r="406" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -19851,7 +19853,7 @@
       <c r="AR406" s="2"/>
       <c r="AS406" s="2"/>
     </row>
-    <row r="407" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -19898,7 +19900,7 @@
       <c r="AR407" s="2"/>
       <c r="AS407" s="2"/>
     </row>
-    <row r="408" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -19945,7 +19947,7 @@
       <c r="AR408" s="2"/>
       <c r="AS408" s="2"/>
     </row>
-    <row r="409" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -19992,7 +19994,7 @@
       <c r="AR409" s="2"/>
       <c r="AS409" s="2"/>
     </row>
-    <row r="410" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -20039,7 +20041,7 @@
       <c r="AR410" s="2"/>
       <c r="AS410" s="2"/>
     </row>
-    <row r="411" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -20086,7 +20088,7 @@
       <c r="AR411" s="2"/>
       <c r="AS411" s="2"/>
     </row>
-    <row r="412" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -20133,7 +20135,7 @@
       <c r="AR412" s="2"/>
       <c r="AS412" s="2"/>
     </row>
-    <row r="413" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -20180,7 +20182,7 @@
       <c r="AR413" s="2"/>
       <c r="AS413" s="2"/>
     </row>
-    <row r="414" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -20227,7 +20229,7 @@
       <c r="AR414" s="2"/>
       <c r="AS414" s="2"/>
     </row>
-    <row r="415" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -20274,7 +20276,7 @@
       <c r="AR415" s="2"/>
       <c r="AS415" s="2"/>
     </row>
-    <row r="416" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -20321,7 +20323,7 @@
       <c r="AR416" s="2"/>
       <c r="AS416" s="2"/>
     </row>
-    <row r="417" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -20368,7 +20370,7 @@
       <c r="AR417" s="2"/>
       <c r="AS417" s="2"/>
     </row>
-    <row r="418" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -20415,7 +20417,7 @@
       <c r="AR418" s="2"/>
       <c r="AS418" s="2"/>
     </row>
-    <row r="419" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -20462,7 +20464,7 @@
       <c r="AR419" s="2"/>
       <c r="AS419" s="2"/>
     </row>
-    <row r="420" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -20509,7 +20511,7 @@
       <c r="AR420" s="2"/>
       <c r="AS420" s="2"/>
     </row>
-    <row r="421" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -20556,7 +20558,7 @@
       <c r="AR421" s="2"/>
       <c r="AS421" s="2"/>
     </row>
-    <row r="422" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -20603,7 +20605,7 @@
       <c r="AR422" s="2"/>
       <c r="AS422" s="2"/>
     </row>
-    <row r="423" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -20650,7 +20652,7 @@
       <c r="AR423" s="2"/>
       <c r="AS423" s="2"/>
     </row>
-    <row r="424" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -20697,7 +20699,7 @@
       <c r="AR424" s="2"/>
       <c r="AS424" s="2"/>
     </row>
-    <row r="425" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -20744,7 +20746,7 @@
       <c r="AR425" s="2"/>
       <c r="AS425" s="2"/>
     </row>
-    <row r="426" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -20791,7 +20793,7 @@
       <c r="AR426" s="2"/>
       <c r="AS426" s="2"/>
     </row>
-    <row r="427" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -20838,7 +20840,7 @@
       <c r="AR427" s="2"/>
       <c r="AS427" s="2"/>
     </row>
-    <row r="428" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -20885,7 +20887,7 @@
       <c r="AR428" s="2"/>
       <c r="AS428" s="2"/>
     </row>
-    <row r="429" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -20932,7 +20934,7 @@
       <c r="AR429" s="2"/>
       <c r="AS429" s="2"/>
     </row>
-    <row r="430" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -20979,7 +20981,7 @@
       <c r="AR430" s="2"/>
       <c r="AS430" s="2"/>
     </row>
-    <row r="431" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -21026,7 +21028,7 @@
       <c r="AR431" s="2"/>
       <c r="AS431" s="2"/>
     </row>
-    <row r="432" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -21073,7 +21075,7 @@
       <c r="AR432" s="2"/>
       <c r="AS432" s="2"/>
     </row>
-    <row r="433" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -21120,7 +21122,7 @@
       <c r="AR433" s="2"/>
       <c r="AS433" s="2"/>
     </row>
-    <row r="434" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -21167,7 +21169,7 @@
       <c r="AR434" s="2"/>
       <c r="AS434" s="2"/>
     </row>
-    <row r="435" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -21214,7 +21216,7 @@
       <c r="AR435" s="2"/>
       <c r="AS435" s="2"/>
     </row>
-    <row r="436" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -21261,7 +21263,7 @@
       <c r="AR436" s="2"/>
       <c r="AS436" s="2"/>
     </row>
-    <row r="437" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -21308,7 +21310,7 @@
       <c r="AR437" s="2"/>
       <c r="AS437" s="2"/>
     </row>
-    <row r="438" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -21355,7 +21357,7 @@
       <c r="AR438" s="2"/>
       <c r="AS438" s="2"/>
     </row>
-    <row r="439" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -21402,7 +21404,7 @@
       <c r="AR439" s="2"/>
       <c r="AS439" s="2"/>
     </row>
-    <row r="440" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -21449,7 +21451,7 @@
       <c r="AR440" s="2"/>
       <c r="AS440" s="2"/>
     </row>
-    <row r="441" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -21496,7 +21498,7 @@
       <c r="AR441" s="2"/>
       <c r="AS441" s="2"/>
     </row>
-    <row r="442" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -21543,7 +21545,7 @@
       <c r="AR442" s="2"/>
       <c r="AS442" s="2"/>
     </row>
-    <row r="443" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -21590,7 +21592,7 @@
       <c r="AR443" s="2"/>
       <c r="AS443" s="2"/>
     </row>
-    <row r="444" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -21637,7 +21639,7 @@
       <c r="AR444" s="2"/>
       <c r="AS444" s="2"/>
     </row>
-    <row r="445" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -21684,7 +21686,7 @@
       <c r="AR445" s="2"/>
       <c r="AS445" s="2"/>
     </row>
-    <row r="446" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -21731,7 +21733,7 @@
       <c r="AR446" s="2"/>
       <c r="AS446" s="2"/>
     </row>
-    <row r="447" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -21778,7 +21780,7 @@
       <c r="AR447" s="2"/>
       <c r="AS447" s="2"/>
     </row>
-    <row r="448" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -21825,7 +21827,7 @@
       <c r="AR448" s="2"/>
       <c r="AS448" s="2"/>
     </row>
-    <row r="449" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -21872,7 +21874,7 @@
       <c r="AR449" s="2"/>
       <c r="AS449" s="2"/>
     </row>
-    <row r="450" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -21919,7 +21921,7 @@
       <c r="AR450" s="2"/>
       <c r="AS450" s="2"/>
     </row>
-    <row r="451" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -21966,7 +21968,7 @@
       <c r="AR451" s="2"/>
       <c r="AS451" s="2"/>
     </row>
-    <row r="452" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -22013,7 +22015,7 @@
       <c r="AR452" s="2"/>
       <c r="AS452" s="2"/>
     </row>
-    <row r="453" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -22060,7 +22062,7 @@
       <c r="AR453" s="2"/>
       <c r="AS453" s="2"/>
     </row>
-    <row r="454" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -22107,7 +22109,7 @@
       <c r="AR454" s="2"/>
       <c r="AS454" s="2"/>
     </row>
-    <row r="455" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -22154,7 +22156,7 @@
       <c r="AR455" s="2"/>
       <c r="AS455" s="2"/>
     </row>
-    <row r="456" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -22201,7 +22203,7 @@
       <c r="AR456" s="2"/>
       <c r="AS456" s="2"/>
     </row>
-    <row r="457" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -22248,7 +22250,7 @@
       <c r="AR457" s="2"/>
       <c r="AS457" s="2"/>
     </row>
-    <row r="458" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -22295,7 +22297,7 @@
       <c r="AR458" s="2"/>
       <c r="AS458" s="2"/>
     </row>
-    <row r="459" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -22342,7 +22344,7 @@
       <c r="AR459" s="2"/>
       <c r="AS459" s="2"/>
     </row>
-    <row r="460" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -22389,7 +22391,7 @@
       <c r="AR460" s="2"/>
       <c r="AS460" s="2"/>
     </row>
-    <row r="461" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -22436,7 +22438,7 @@
       <c r="AR461" s="2"/>
       <c r="AS461" s="2"/>
     </row>
-    <row r="462" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -22483,7 +22485,7 @@
       <c r="AR462" s="2"/>
       <c r="AS462" s="2"/>
     </row>
-    <row r="463" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -22530,7 +22532,7 @@
       <c r="AR463" s="2"/>
       <c r="AS463" s="2"/>
     </row>
-    <row r="464" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -22577,7 +22579,7 @@
       <c r="AR464" s="2"/>
       <c r="AS464" s="2"/>
     </row>
-    <row r="465" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -22624,7 +22626,7 @@
       <c r="AR465" s="2"/>
       <c r="AS465" s="2"/>
     </row>
-    <row r="466" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -22671,7 +22673,7 @@
       <c r="AR466" s="2"/>
       <c r="AS466" s="2"/>
     </row>
-    <row r="467" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -22718,7 +22720,7 @@
       <c r="AR467" s="2"/>
       <c r="AS467" s="2"/>
     </row>
-    <row r="468" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -22765,7 +22767,7 @@
       <c r="AR468" s="2"/>
       <c r="AS468" s="2"/>
     </row>
-    <row r="469" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -22812,7 +22814,7 @@
       <c r="AR469" s="2"/>
       <c r="AS469" s="2"/>
     </row>
-    <row r="470" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -22859,7 +22861,7 @@
       <c r="AR470" s="2"/>
       <c r="AS470" s="2"/>
     </row>
-    <row r="471" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -22906,7 +22908,7 @@
       <c r="AR471" s="2"/>
       <c r="AS471" s="2"/>
     </row>
-    <row r="472" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -22953,7 +22955,7 @@
       <c r="AR472" s="2"/>
       <c r="AS472" s="2"/>
     </row>
-    <row r="473" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -23000,7 +23002,7 @@
       <c r="AR473" s="2"/>
       <c r="AS473" s="2"/>
     </row>
-    <row r="474" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -23047,7 +23049,7 @@
       <c r="AR474" s="2"/>
       <c r="AS474" s="2"/>
     </row>
-    <row r="475" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -23094,7 +23096,7 @@
       <c r="AR475" s="2"/>
       <c r="AS475" s="2"/>
     </row>
-    <row r="476" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -23141,7 +23143,7 @@
       <c r="AR476" s="2"/>
       <c r="AS476" s="2"/>
     </row>
-    <row r="477" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -23188,7 +23190,7 @@
       <c r="AR477" s="2"/>
       <c r="AS477" s="2"/>
     </row>
-    <row r="478" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -23235,7 +23237,7 @@
       <c r="AR478" s="2"/>
       <c r="AS478" s="2"/>
     </row>
-    <row r="479" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -23282,7 +23284,7 @@
       <c r="AR479" s="2"/>
       <c r="AS479" s="2"/>
     </row>
-    <row r="480" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -23329,7 +23331,7 @@
       <c r="AR480" s="2"/>
       <c r="AS480" s="2"/>
     </row>
-    <row r="481" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -23376,7 +23378,7 @@
       <c r="AR481" s="2"/>
       <c r="AS481" s="2"/>
     </row>
-    <row r="482" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -23423,7 +23425,7 @@
       <c r="AR482" s="2"/>
       <c r="AS482" s="2"/>
     </row>
-    <row r="483" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -23470,7 +23472,7 @@
       <c r="AR483" s="2"/>
       <c r="AS483" s="2"/>
     </row>
-    <row r="484" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -23517,7 +23519,7 @@
       <c r="AR484" s="2"/>
       <c r="AS484" s="2"/>
     </row>
-    <row r="485" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -23564,7 +23566,7 @@
       <c r="AR485" s="2"/>
       <c r="AS485" s="2"/>
     </row>
-    <row r="486" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -23611,7 +23613,7 @@
       <c r="AR486" s="2"/>
       <c r="AS486" s="2"/>
     </row>
-    <row r="487" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -23658,7 +23660,7 @@
       <c r="AR487" s="2"/>
       <c r="AS487" s="2"/>
     </row>
-    <row r="488" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -23705,7 +23707,7 @@
       <c r="AR488" s="2"/>
       <c r="AS488" s="2"/>
     </row>
-    <row r="489" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -23752,7 +23754,7 @@
       <c r="AR489" s="2"/>
       <c r="AS489" s="2"/>
     </row>
-    <row r="490" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -23799,7 +23801,7 @@
       <c r="AR490" s="2"/>
       <c r="AS490" s="2"/>
     </row>
-    <row r="491" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -23846,7 +23848,7 @@
       <c r="AR491" s="2"/>
       <c r="AS491" s="2"/>
     </row>
-    <row r="492" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -23893,7 +23895,7 @@
       <c r="AR492" s="2"/>
       <c r="AS492" s="2"/>
     </row>
-    <row r="493" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -23940,7 +23942,7 @@
       <c r="AR493" s="2"/>
       <c r="AS493" s="2"/>
     </row>
-    <row r="494" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -23987,7 +23989,7 @@
       <c r="AR494" s="2"/>
       <c r="AS494" s="2"/>
     </row>
-    <row r="495" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -24034,7 +24036,7 @@
       <c r="AR495" s="2"/>
       <c r="AS495" s="2"/>
     </row>
-    <row r="496" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -24081,7 +24083,7 @@
       <c r="AR496" s="2"/>
       <c r="AS496" s="2"/>
     </row>
-    <row r="497" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -24128,7 +24130,7 @@
       <c r="AR497" s="2"/>
       <c r="AS497" s="2"/>
     </row>
-    <row r="498" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -24175,7 +24177,7 @@
       <c r="AR498" s="2"/>
       <c r="AS498" s="2"/>
     </row>
-    <row r="499" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -24222,7 +24224,7 @@
       <c r="AR499" s="2"/>
       <c r="AS499" s="2"/>
     </row>
-    <row r="500" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -24269,7 +24271,7 @@
       <c r="AR500" s="2"/>
       <c r="AS500" s="2"/>
     </row>
-    <row r="501" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -24316,7 +24318,7 @@
       <c r="AR501" s="2"/>
       <c r="AS501" s="2"/>
     </row>
-    <row r="502" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -24363,7 +24365,7 @@
       <c r="AR502" s="2"/>
       <c r="AS502" s="2"/>
     </row>
-    <row r="503" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -24410,7 +24412,7 @@
       <c r="AR503" s="2"/>
       <c r="AS503" s="2"/>
     </row>
-    <row r="504" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -24457,7 +24459,7 @@
       <c r="AR504" s="2"/>
       <c r="AS504" s="2"/>
     </row>
-    <row r="505" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -24504,7 +24506,7 @@
       <c r="AR505" s="2"/>
       <c r="AS505" s="2"/>
     </row>
-    <row r="506" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -24551,7 +24553,7 @@
       <c r="AR506" s="2"/>
       <c r="AS506" s="2"/>
     </row>
-    <row r="507" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -24598,7 +24600,7 @@
       <c r="AR507" s="2"/>
       <c r="AS507" s="2"/>
     </row>
-    <row r="508" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -24645,7 +24647,7 @@
       <c r="AR508" s="2"/>
       <c r="AS508" s="2"/>
     </row>
-    <row r="509" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -24692,7 +24694,7 @@
       <c r="AR509" s="2"/>
       <c r="AS509" s="2"/>
     </row>
-    <row r="510" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -24739,7 +24741,7 @@
       <c r="AR510" s="2"/>
       <c r="AS510" s="2"/>
     </row>
-    <row r="511" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -24786,7 +24788,7 @@
       <c r="AR511" s="2"/>
       <c r="AS511" s="2"/>
     </row>
-    <row r="512" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -24833,7 +24835,7 @@
       <c r="AR512" s="2"/>
       <c r="AS512" s="2"/>
     </row>
-    <row r="513" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -24880,7 +24882,7 @@
       <c r="AR513" s="2"/>
       <c r="AS513" s="2"/>
     </row>
-    <row r="514" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -24927,7 +24929,7 @@
       <c r="AR514" s="2"/>
       <c r="AS514" s="2"/>
     </row>
-    <row r="515" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -24974,7 +24976,7 @@
       <c r="AR515" s="2"/>
       <c r="AS515" s="2"/>
     </row>
-    <row r="516" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -25021,7 +25023,7 @@
       <c r="AR516" s="2"/>
       <c r="AS516" s="2"/>
     </row>
-    <row r="517" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -25068,7 +25070,7 @@
       <c r="AR517" s="2"/>
       <c r="AS517" s="2"/>
     </row>
-    <row r="518" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -25115,7 +25117,7 @@
       <c r="AR518" s="2"/>
       <c r="AS518" s="2"/>
     </row>
-    <row r="519" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -25162,7 +25164,7 @@
       <c r="AR519" s="2"/>
       <c r="AS519" s="2"/>
     </row>
-    <row r="520" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -25209,7 +25211,7 @@
       <c r="AR520" s="2"/>
       <c r="AS520" s="2"/>
     </row>
-    <row r="521" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -25256,7 +25258,7 @@
       <c r="AR521" s="2"/>
       <c r="AS521" s="2"/>
     </row>
-    <row r="522" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -25303,7 +25305,7 @@
       <c r="AR522" s="2"/>
       <c r="AS522" s="2"/>
     </row>
-    <row r="523" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -25350,7 +25352,7 @@
       <c r="AR523" s="2"/>
       <c r="AS523" s="2"/>
     </row>
-    <row r="524" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -25397,7 +25399,7 @@
       <c r="AR524" s="2"/>
       <c r="AS524" s="2"/>
     </row>
-    <row r="525" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -25444,7 +25446,7 @@
       <c r="AR525" s="2"/>
       <c r="AS525" s="2"/>
     </row>
-    <row r="526" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -25491,7 +25493,7 @@
       <c r="AR526" s="2"/>
       <c r="AS526" s="2"/>
     </row>
-    <row r="527" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -25538,7 +25540,7 @@
       <c r="AR527" s="2"/>
       <c r="AS527" s="2"/>
     </row>
-    <row r="528" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -25585,7 +25587,7 @@
       <c r="AR528" s="2"/>
       <c r="AS528" s="2"/>
     </row>
-    <row r="529" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -25632,7 +25634,7 @@
       <c r="AR529" s="2"/>
       <c r="AS529" s="2"/>
     </row>
-    <row r="530" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -25679,7 +25681,7 @@
       <c r="AR530" s="2"/>
       <c r="AS530" s="2"/>
     </row>
-    <row r="531" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -25726,7 +25728,7 @@
       <c r="AR531" s="2"/>
       <c r="AS531" s="2"/>
     </row>
-    <row r="532" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -25773,7 +25775,7 @@
       <c r="AR532" s="2"/>
       <c r="AS532" s="2"/>
     </row>
-    <row r="533" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -25820,7 +25822,7 @@
       <c r="AR533" s="2"/>
       <c r="AS533" s="2"/>
     </row>
-    <row r="534" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -25867,7 +25869,7 @@
       <c r="AR534" s="2"/>
       <c r="AS534" s="2"/>
     </row>
-    <row r="535" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -25914,7 +25916,7 @@
       <c r="AR535" s="2"/>
       <c r="AS535" s="2"/>
     </row>
-    <row r="536" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -25961,7 +25963,7 @@
       <c r="AR536" s="2"/>
       <c r="AS536" s="2"/>
     </row>
-    <row r="537" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -26008,7 +26010,7 @@
       <c r="AR537" s="2"/>
       <c r="AS537" s="2"/>
     </row>
-    <row r="538" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -26055,7 +26057,7 @@
       <c r="AR538" s="2"/>
       <c r="AS538" s="2"/>
     </row>
-    <row r="539" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -26102,7 +26104,7 @@
       <c r="AR539" s="2"/>
       <c r="AS539" s="2"/>
     </row>
-    <row r="540" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -26149,7 +26151,7 @@
       <c r="AR540" s="2"/>
       <c r="AS540" s="2"/>
     </row>
-    <row r="541" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -26196,7 +26198,7 @@
       <c r="AR541" s="2"/>
       <c r="AS541" s="2"/>
     </row>
-    <row r="542" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -26243,7 +26245,7 @@
       <c r="AR542" s="2"/>
       <c r="AS542" s="2"/>
     </row>
-    <row r="543" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -26290,7 +26292,7 @@
       <c r="AR543" s="2"/>
       <c r="AS543" s="2"/>
     </row>
-    <row r="544" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -26337,7 +26339,7 @@
       <c r="AR544" s="2"/>
       <c r="AS544" s="2"/>
     </row>
-    <row r="545" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -26384,7 +26386,7 @@
       <c r="AR545" s="2"/>
       <c r="AS545" s="2"/>
     </row>
-    <row r="546" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -26431,7 +26433,7 @@
       <c r="AR546" s="2"/>
       <c r="AS546" s="2"/>
     </row>
-    <row r="547" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -26478,7 +26480,7 @@
       <c r="AR547" s="2"/>
       <c r="AS547" s="2"/>
     </row>
-    <row r="548" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -26525,7 +26527,7 @@
       <c r="AR548" s="2"/>
       <c r="AS548" s="2"/>
     </row>
-    <row r="549" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -26572,7 +26574,7 @@
       <c r="AR549" s="2"/>
       <c r="AS549" s="2"/>
     </row>
-    <row r="550" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -26619,7 +26621,7 @@
       <c r="AR550" s="2"/>
       <c r="AS550" s="2"/>
     </row>
-    <row r="551" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -26666,7 +26668,7 @@
       <c r="AR551" s="2"/>
       <c r="AS551" s="2"/>
     </row>
-    <row r="552" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -26713,7 +26715,7 @@
       <c r="AR552" s="2"/>
       <c r="AS552" s="2"/>
     </row>
-    <row r="553" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -26760,7 +26762,7 @@
       <c r="AR553" s="2"/>
       <c r="AS553" s="2"/>
     </row>
-    <row r="554" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -26807,7 +26809,7 @@
       <c r="AR554" s="2"/>
       <c r="AS554" s="2"/>
     </row>
-    <row r="555" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -26854,7 +26856,7 @@
       <c r="AR555" s="2"/>
       <c r="AS555" s="2"/>
     </row>
-    <row r="556" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -26901,7 +26903,7 @@
       <c r="AR556" s="2"/>
       <c r="AS556" s="2"/>
     </row>
-    <row r="557" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -26948,7 +26950,7 @@
       <c r="AR557" s="2"/>
       <c r="AS557" s="2"/>
     </row>
-    <row r="558" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -26995,7 +26997,7 @@
       <c r="AR558" s="2"/>
       <c r="AS558" s="2"/>
     </row>
-    <row r="559" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -27042,7 +27044,7 @@
       <c r="AR559" s="2"/>
       <c r="AS559" s="2"/>
     </row>
-    <row r="560" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -27089,7 +27091,7 @@
       <c r="AR560" s="2"/>
       <c r="AS560" s="2"/>
     </row>
-    <row r="561" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -27136,7 +27138,7 @@
       <c r="AR561" s="2"/>
       <c r="AS561" s="2"/>
     </row>
-    <row r="562" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -27183,7 +27185,7 @@
       <c r="AR562" s="2"/>
       <c r="AS562" s="2"/>
     </row>
-    <row r="563" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -27230,7 +27232,7 @@
       <c r="AR563" s="2"/>
       <c r="AS563" s="2"/>
     </row>
-    <row r="564" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -27277,7 +27279,7 @@
       <c r="AR564" s="2"/>
       <c r="AS564" s="2"/>
     </row>
-    <row r="565" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -27324,7 +27326,7 @@
       <c r="AR565" s="2"/>
       <c r="AS565" s="2"/>
     </row>
-    <row r="566" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -27371,7 +27373,7 @@
       <c r="AR566" s="2"/>
       <c r="AS566" s="2"/>
     </row>
-    <row r="567" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -27418,7 +27420,7 @@
       <c r="AR567" s="2"/>
       <c r="AS567" s="2"/>
     </row>
-    <row r="568" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -27465,7 +27467,7 @@
       <c r="AR568" s="2"/>
       <c r="AS568" s="2"/>
     </row>
-    <row r="569" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -27512,7 +27514,7 @@
       <c r="AR569" s="2"/>
       <c r="AS569" s="2"/>
     </row>
-    <row r="570" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -27559,7 +27561,7 @@
       <c r="AR570" s="2"/>
       <c r="AS570" s="2"/>
     </row>
-    <row r="571" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -27606,7 +27608,7 @@
       <c r="AR571" s="2"/>
       <c r="AS571" s="2"/>
     </row>
-    <row r="572" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -27653,7 +27655,7 @@
       <c r="AR572" s="2"/>
       <c r="AS572" s="2"/>
     </row>
-    <row r="573" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -27700,7 +27702,7 @@
       <c r="AR573" s="2"/>
       <c r="AS573" s="2"/>
     </row>
-    <row r="574" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -27747,7 +27749,7 @@
       <c r="AR574" s="2"/>
       <c r="AS574" s="2"/>
     </row>
-    <row r="575" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -27794,7 +27796,7 @@
       <c r="AR575" s="2"/>
       <c r="AS575" s="2"/>
     </row>
-    <row r="576" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -27841,7 +27843,7 @@
       <c r="AR576" s="2"/>
       <c r="AS576" s="2"/>
     </row>
-    <row r="577" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -27888,7 +27890,7 @@
       <c r="AR577" s="2"/>
       <c r="AS577" s="2"/>
     </row>
-    <row r="578" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -27935,7 +27937,7 @@
       <c r="AR578" s="2"/>
       <c r="AS578" s="2"/>
     </row>
-    <row r="579" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -27982,7 +27984,7 @@
       <c r="AR579" s="2"/>
       <c r="AS579" s="2"/>
     </row>
-    <row r="580" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -28029,7 +28031,7 @@
       <c r="AR580" s="2"/>
       <c r="AS580" s="2"/>
     </row>
-    <row r="581" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -28076,7 +28078,7 @@
       <c r="AR581" s="2"/>
       <c r="AS581" s="2"/>
     </row>
-    <row r="582" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -28123,7 +28125,7 @@
       <c r="AR582" s="2"/>
       <c r="AS582" s="2"/>
     </row>
-    <row r="583" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -28170,7 +28172,7 @@
       <c r="AR583" s="2"/>
       <c r="AS583" s="2"/>
     </row>
-    <row r="584" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -28217,7 +28219,7 @@
       <c r="AR584" s="2"/>
       <c r="AS584" s="2"/>
     </row>
-    <row r="585" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -28264,7 +28266,7 @@
       <c r="AR585" s="2"/>
       <c r="AS585" s="2"/>
     </row>
-    <row r="586" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -28311,7 +28313,7 @@
       <c r="AR586" s="2"/>
       <c r="AS586" s="2"/>
     </row>
-    <row r="587" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -28358,7 +28360,7 @@
       <c r="AR587" s="2"/>
       <c r="AS587" s="2"/>
     </row>
-    <row r="588" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -28405,7 +28407,7 @@
       <c r="AR588" s="2"/>
       <c r="AS588" s="2"/>
     </row>
-    <row r="589" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -28452,7 +28454,7 @@
       <c r="AR589" s="2"/>
       <c r="AS589" s="2"/>
     </row>
-    <row r="590" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -28499,7 +28501,7 @@
       <c r="AR590" s="2"/>
       <c r="AS590" s="2"/>
     </row>
-    <row r="591" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -28546,7 +28548,7 @@
       <c r="AR591" s="2"/>
       <c r="AS591" s="2"/>
     </row>
-    <row r="592" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -28593,7 +28595,7 @@
       <c r="AR592" s="2"/>
       <c r="AS592" s="2"/>
     </row>
-    <row r="593" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -28640,7 +28642,7 @@
       <c r="AR593" s="2"/>
       <c r="AS593" s="2"/>
     </row>
-    <row r="594" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -28687,7 +28689,7 @@
       <c r="AR594" s="2"/>
       <c r="AS594" s="2"/>
     </row>
-    <row r="595" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -28734,7 +28736,7 @@
       <c r="AR595" s="2"/>
       <c r="AS595" s="2"/>
     </row>
-    <row r="596" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -28781,7 +28783,7 @@
       <c r="AR596" s="2"/>
       <c r="AS596" s="2"/>
     </row>
-    <row r="597" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -28828,7 +28830,7 @@
       <c r="AR597" s="2"/>
       <c r="AS597" s="2"/>
     </row>
-    <row r="598" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -28875,7 +28877,7 @@
       <c r="AR598" s="2"/>
       <c r="AS598" s="2"/>
     </row>
-    <row r="599" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -28922,7 +28924,7 @@
       <c r="AR599" s="2"/>
       <c r="AS599" s="2"/>
     </row>
-    <row r="600" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -28969,7 +28971,7 @@
       <c r="AR600" s="2"/>
       <c r="AS600" s="2"/>
     </row>
-    <row r="601" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -29016,7 +29018,7 @@
       <c r="AR601" s="2"/>
       <c r="AS601" s="2"/>
     </row>
-    <row r="602" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -29063,7 +29065,7 @@
       <c r="AR602" s="2"/>
       <c r="AS602" s="2"/>
     </row>
-    <row r="603" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -29110,7 +29112,7 @@
       <c r="AR603" s="2"/>
       <c r="AS603" s="2"/>
     </row>
-    <row r="604" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -29157,7 +29159,7 @@
       <c r="AR604" s="2"/>
       <c r="AS604" s="2"/>
     </row>
-    <row r="605" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -29204,7 +29206,7 @@
       <c r="AR605" s="2"/>
       <c r="AS605" s="2"/>
     </row>
-    <row r="606" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -29251,7 +29253,7 @@
       <c r="AR606" s="2"/>
       <c r="AS606" s="2"/>
     </row>
-    <row r="607" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -29298,7 +29300,7 @@
       <c r="AR607" s="2"/>
       <c r="AS607" s="2"/>
     </row>
-    <row r="608" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -29345,7 +29347,7 @@
       <c r="AR608" s="2"/>
       <c r="AS608" s="2"/>
     </row>
-    <row r="609" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -29392,7 +29394,7 @@
       <c r="AR609" s="2"/>
       <c r="AS609" s="2"/>
     </row>
-    <row r="610" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -29439,7 +29441,7 @@
       <c r="AR610" s="2"/>
       <c r="AS610" s="2"/>
     </row>
-    <row r="611" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -29486,7 +29488,7 @@
       <c r="AR611" s="2"/>
       <c r="AS611" s="2"/>
     </row>
-    <row r="612" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -29533,7 +29535,7 @@
       <c r="AR612" s="2"/>
       <c r="AS612" s="2"/>
     </row>
-    <row r="613" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -29580,7 +29582,7 @@
       <c r="AR613" s="2"/>
       <c r="AS613" s="2"/>
     </row>
-    <row r="614" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -29627,7 +29629,7 @@
       <c r="AR614" s="2"/>
       <c r="AS614" s="2"/>
     </row>
-    <row r="615" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -29674,7 +29676,7 @@
       <c r="AR615" s="2"/>
       <c r="AS615" s="2"/>
     </row>
-    <row r="616" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -29721,7 +29723,7 @@
       <c r="AR616" s="2"/>
       <c r="AS616" s="2"/>
     </row>
-    <row r="617" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -29768,7 +29770,7 @@
       <c r="AR617" s="2"/>
       <c r="AS617" s="2"/>
     </row>
-    <row r="618" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -29815,7 +29817,7 @@
       <c r="AR618" s="2"/>
       <c r="AS618" s="2"/>
     </row>
-    <row r="619" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -29862,7 +29864,7 @@
       <c r="AR619" s="2"/>
       <c r="AS619" s="2"/>
     </row>
-    <row r="620" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -29909,7 +29911,7 @@
       <c r="AR620" s="2"/>
       <c r="AS620" s="2"/>
     </row>
-    <row r="621" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -29956,7 +29958,7 @@
       <c r="AR621" s="2"/>
       <c r="AS621" s="2"/>
     </row>
-    <row r="622" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -30003,7 +30005,7 @@
       <c r="AR622" s="2"/>
       <c r="AS622" s="2"/>
     </row>
-    <row r="623" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -30050,7 +30052,7 @@
       <c r="AR623" s="2"/>
       <c r="AS623" s="2"/>
     </row>
-    <row r="624" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -30097,7 +30099,7 @@
       <c r="AR624" s="2"/>
       <c r="AS624" s="2"/>
     </row>
-    <row r="625" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -30144,7 +30146,7 @@
       <c r="AR625" s="2"/>
       <c r="AS625" s="2"/>
     </row>
-    <row r="626" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -30191,7 +30193,7 @@
       <c r="AR626" s="2"/>
       <c r="AS626" s="2"/>
     </row>
-    <row r="627" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -30238,7 +30240,7 @@
       <c r="AR627" s="2"/>
       <c r="AS627" s="2"/>
     </row>
-    <row r="628" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -30285,7 +30287,7 @@
       <c r="AR628" s="2"/>
       <c r="AS628" s="2"/>
     </row>
-    <row r="629" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -30332,7 +30334,7 @@
       <c r="AR629" s="2"/>
       <c r="AS629" s="2"/>
     </row>
-    <row r="630" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -30379,7 +30381,7 @@
       <c r="AR630" s="2"/>
       <c r="AS630" s="2"/>
     </row>
-    <row r="631" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -30426,7 +30428,7 @@
       <c r="AR631" s="2"/>
       <c r="AS631" s="2"/>
     </row>
-    <row r="632" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -30473,7 +30475,7 @@
       <c r="AR632" s="2"/>
       <c r="AS632" s="2"/>
     </row>
-    <row r="633" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -30520,7 +30522,7 @@
       <c r="AR633" s="2"/>
       <c r="AS633" s="2"/>
     </row>
-    <row r="634" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -30567,7 +30569,7 @@
       <c r="AR634" s="2"/>
       <c r="AS634" s="2"/>
     </row>
-    <row r="635" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -30614,7 +30616,7 @@
       <c r="AR635" s="2"/>
       <c r="AS635" s="2"/>
     </row>
-    <row r="636" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -30661,7 +30663,7 @@
       <c r="AR636" s="2"/>
       <c r="AS636" s="2"/>
     </row>
-    <row r="637" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -30708,7 +30710,7 @@
       <c r="AR637" s="2"/>
       <c r="AS637" s="2"/>
     </row>
-    <row r="638" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -30755,7 +30757,7 @@
       <c r="AR638" s="2"/>
       <c r="AS638" s="2"/>
     </row>
-    <row r="639" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -30802,7 +30804,7 @@
       <c r="AR639" s="2"/>
       <c r="AS639" s="2"/>
     </row>
-    <row r="640" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -30849,7 +30851,7 @@
       <c r="AR640" s="2"/>
       <c r="AS640" s="2"/>
     </row>
-    <row r="641" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -30896,7 +30898,7 @@
       <c r="AR641" s="2"/>
       <c r="AS641" s="2"/>
     </row>
-    <row r="642" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -30943,7 +30945,7 @@
       <c r="AR642" s="2"/>
       <c r="AS642" s="2"/>
     </row>
-    <row r="643" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -30990,7 +30992,7 @@
       <c r="AR643" s="2"/>
       <c r="AS643" s="2"/>
     </row>
-    <row r="644" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -31037,7 +31039,7 @@
       <c r="AR644" s="2"/>
       <c r="AS644" s="2"/>
     </row>
-    <row r="645" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -31084,7 +31086,7 @@
       <c r="AR645" s="2"/>
       <c r="AS645" s="2"/>
     </row>
-    <row r="646" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -31131,7 +31133,7 @@
       <c r="AR646" s="2"/>
       <c r="AS646" s="2"/>
     </row>
-    <row r="647" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -31178,7 +31180,7 @@
       <c r="AR647" s="2"/>
       <c r="AS647" s="2"/>
     </row>
-    <row r="648" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -31225,7 +31227,7 @@
       <c r="AR648" s="2"/>
       <c r="AS648" s="2"/>
     </row>
-    <row r="649" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -31272,7 +31274,7 @@
       <c r="AR649" s="2"/>
       <c r="AS649" s="2"/>
     </row>
-    <row r="650" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -31319,7 +31321,7 @@
       <c r="AR650" s="2"/>
       <c r="AS650" s="2"/>
     </row>
-    <row r="651" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -31366,7 +31368,7 @@
       <c r="AR651" s="2"/>
       <c r="AS651" s="2"/>
     </row>
-    <row r="652" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -31413,7 +31415,7 @@
       <c r="AR652" s="2"/>
       <c r="AS652" s="2"/>
     </row>
-    <row r="653" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -31460,7 +31462,7 @@
       <c r="AR653" s="2"/>
       <c r="AS653" s="2"/>
     </row>
-    <row r="654" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -31507,7 +31509,7 @@
       <c r="AR654" s="2"/>
       <c r="AS654" s="2"/>
     </row>
-    <row r="655" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -31554,7 +31556,7 @@
       <c r="AR655" s="2"/>
       <c r="AS655" s="2"/>
     </row>
-    <row r="656" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -31601,7 +31603,7 @@
       <c r="AR656" s="2"/>
       <c r="AS656" s="2"/>
     </row>
-    <row r="657" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -31648,7 +31650,7 @@
       <c r="AR657" s="2"/>
       <c r="AS657" s="2"/>
     </row>
-    <row r="658" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -31695,7 +31697,7 @@
       <c r="AR658" s="2"/>
       <c r="AS658" s="2"/>
     </row>
-    <row r="659" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -31742,7 +31744,7 @@
       <c r="AR659" s="2"/>
       <c r="AS659" s="2"/>
     </row>
-    <row r="660" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -31789,7 +31791,7 @@
       <c r="AR660" s="2"/>
       <c r="AS660" s="2"/>
     </row>
-    <row r="661" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -31836,7 +31838,7 @@
       <c r="AR661" s="2"/>
       <c r="AS661" s="2"/>
     </row>
-    <row r="662" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -31883,7 +31885,7 @@
       <c r="AR662" s="2"/>
       <c r="AS662" s="2"/>
     </row>
-    <row r="663" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -31930,7 +31932,7 @@
       <c r="AR663" s="2"/>
       <c r="AS663" s="2"/>
     </row>
-    <row r="664" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -31977,7 +31979,7 @@
       <c r="AR664" s="2"/>
       <c r="AS664" s="2"/>
     </row>
-    <row r="665" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -32024,7 +32026,7 @@
       <c r="AR665" s="2"/>
       <c r="AS665" s="2"/>
     </row>
-    <row r="666" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -32071,7 +32073,7 @@
       <c r="AR666" s="2"/>
       <c r="AS666" s="2"/>
     </row>
-    <row r="667" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -32118,7 +32120,7 @@
       <c r="AR667" s="2"/>
       <c r="AS667" s="2"/>
     </row>
-    <row r="668" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -32165,7 +32167,7 @@
       <c r="AR668" s="2"/>
       <c r="AS668" s="2"/>
     </row>
-    <row r="669" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -32212,7 +32214,7 @@
       <c r="AR669" s="2"/>
       <c r="AS669" s="2"/>
     </row>
-    <row r="670" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -32259,7 +32261,7 @@
       <c r="AR670" s="2"/>
       <c r="AS670" s="2"/>
     </row>
-    <row r="671" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -32306,7 +32308,7 @@
       <c r="AR671" s="2"/>
       <c r="AS671" s="2"/>
     </row>
-    <row r="672" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -32353,7 +32355,7 @@
       <c r="AR672" s="2"/>
       <c r="AS672" s="2"/>
     </row>
-    <row r="673" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -32400,7 +32402,7 @@
       <c r="AR673" s="2"/>
       <c r="AS673" s="2"/>
     </row>
-    <row r="674" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -32447,7 +32449,7 @@
       <c r="AR674" s="2"/>
       <c r="AS674" s="2"/>
     </row>
-    <row r="675" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -32494,7 +32496,7 @@
       <c r="AR675" s="2"/>
       <c r="AS675" s="2"/>
     </row>
-    <row r="676" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -32541,7 +32543,7 @@
       <c r="AR676" s="2"/>
       <c r="AS676" s="2"/>
     </row>
-    <row r="677" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -32588,7 +32590,7 @@
       <c r="AR677" s="2"/>
       <c r="AS677" s="2"/>
     </row>
-    <row r="678" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -32635,7 +32637,7 @@
       <c r="AR678" s="2"/>
       <c r="AS678" s="2"/>
     </row>
-    <row r="679" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -32682,7 +32684,7 @@
       <c r="AR679" s="2"/>
       <c r="AS679" s="2"/>
     </row>
-    <row r="680" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -32729,7 +32731,7 @@
       <c r="AR680" s="2"/>
       <c r="AS680" s="2"/>
     </row>
-    <row r="681" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -32776,7 +32778,7 @@
       <c r="AR681" s="2"/>
       <c r="AS681" s="2"/>
     </row>
-    <row r="682" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -32823,7 +32825,7 @@
       <c r="AR682" s="2"/>
       <c r="AS682" s="2"/>
     </row>
-    <row r="683" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -32870,7 +32872,7 @@
       <c r="AR683" s="2"/>
       <c r="AS683" s="2"/>
     </row>
-    <row r="684" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -32917,7 +32919,7 @@
       <c r="AR684" s="2"/>
       <c r="AS684" s="2"/>
     </row>
-    <row r="685" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -32964,7 +32966,7 @@
       <c r="AR685" s="2"/>
       <c r="AS685" s="2"/>
     </row>
-    <row r="686" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -33011,7 +33013,7 @@
       <c r="AR686" s="2"/>
       <c r="AS686" s="2"/>
     </row>
-    <row r="687" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -33058,7 +33060,7 @@
       <c r="AR687" s="2"/>
       <c r="AS687" s="2"/>
     </row>
-    <row r="688" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -33105,7 +33107,7 @@
       <c r="AR688" s="2"/>
       <c r="AS688" s="2"/>
     </row>
-    <row r="689" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -33152,7 +33154,7 @@
       <c r="AR689" s="2"/>
       <c r="AS689" s="2"/>
     </row>
-    <row r="690" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -33199,7 +33201,7 @@
       <c r="AR690" s="2"/>
       <c r="AS690" s="2"/>
     </row>
-    <row r="691" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -33246,7 +33248,7 @@
       <c r="AR691" s="2"/>
       <c r="AS691" s="2"/>
     </row>
-    <row r="692" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -33293,7 +33295,7 @@
       <c r="AR692" s="2"/>
       <c r="AS692" s="2"/>
     </row>
-    <row r="693" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -33340,7 +33342,7 @@
       <c r="AR693" s="2"/>
       <c r="AS693" s="2"/>
     </row>
-    <row r="694" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -33387,7 +33389,7 @@
       <c r="AR694" s="2"/>
       <c r="AS694" s="2"/>
     </row>
-    <row r="695" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -33434,7 +33436,7 @@
       <c r="AR695" s="2"/>
       <c r="AS695" s="2"/>
     </row>
-    <row r="696" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -33481,7 +33483,7 @@
       <c r="AR696" s="2"/>
       <c r="AS696" s="2"/>
     </row>
-    <row r="697" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -33528,7 +33530,7 @@
       <c r="AR697" s="2"/>
       <c r="AS697" s="2"/>
     </row>
-    <row r="698" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -33575,7 +33577,7 @@
       <c r="AR698" s="2"/>
       <c r="AS698" s="2"/>
     </row>
-    <row r="699" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -33622,7 +33624,7 @@
       <c r="AR699" s="2"/>
       <c r="AS699" s="2"/>
     </row>
-    <row r="700" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -33669,7 +33671,7 @@
       <c r="AR700" s="2"/>
       <c r="AS700" s="2"/>
     </row>
-    <row r="701" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -33716,7 +33718,7 @@
       <c r="AR701" s="2"/>
       <c r="AS701" s="2"/>
     </row>
-    <row r="702" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -33763,7 +33765,7 @@
       <c r="AR702" s="2"/>
       <c r="AS702" s="2"/>
     </row>
-    <row r="703" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -33810,7 +33812,7 @@
       <c r="AR703" s="2"/>
       <c r="AS703" s="2"/>
     </row>
-    <row r="704" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -33857,7 +33859,7 @@
       <c r="AR704" s="2"/>
       <c r="AS704" s="2"/>
     </row>
-    <row r="705" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -33904,7 +33906,7 @@
       <c r="AR705" s="2"/>
       <c r="AS705" s="2"/>
     </row>
-    <row r="706" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -33951,7 +33953,7 @@
       <c r="AR706" s="2"/>
       <c r="AS706" s="2"/>
     </row>
-    <row r="707" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -33998,7 +34000,7 @@
       <c r="AR707" s="2"/>
       <c r="AS707" s="2"/>
     </row>
-    <row r="708" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -34045,7 +34047,7 @@
       <c r="AR708" s="2"/>
       <c r="AS708" s="2"/>
     </row>
-    <row r="709" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -34092,7 +34094,7 @@
       <c r="AR709" s="2"/>
       <c r="AS709" s="2"/>
     </row>
-    <row r="710" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -34139,7 +34141,7 @@
       <c r="AR710" s="2"/>
       <c r="AS710" s="2"/>
     </row>
-    <row r="711" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -34186,7 +34188,7 @@
       <c r="AR711" s="2"/>
       <c r="AS711" s="2"/>
     </row>
-    <row r="712" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -34233,7 +34235,7 @@
       <c r="AR712" s="2"/>
       <c r="AS712" s="2"/>
     </row>
-    <row r="713" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -34280,7 +34282,7 @@
       <c r="AR713" s="2"/>
       <c r="AS713" s="2"/>
     </row>
-    <row r="714" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -34327,7 +34329,7 @@
       <c r="AR714" s="2"/>
       <c r="AS714" s="2"/>
     </row>
-    <row r="715" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -34374,7 +34376,7 @@
       <c r="AR715" s="2"/>
       <c r="AS715" s="2"/>
     </row>
-    <row r="716" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -34421,7 +34423,7 @@
       <c r="AR716" s="2"/>
       <c r="AS716" s="2"/>
     </row>
-    <row r="717" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -34468,7 +34470,7 @@
       <c r="AR717" s="2"/>
       <c r="AS717" s="2"/>
     </row>
-    <row r="718" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -34515,7 +34517,7 @@
       <c r="AR718" s="2"/>
       <c r="AS718" s="2"/>
     </row>
-    <row r="719" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -34562,7 +34564,7 @@
       <c r="AR719" s="2"/>
       <c r="AS719" s="2"/>
     </row>
-    <row r="720" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -34609,7 +34611,7 @@
       <c r="AR720" s="2"/>
       <c r="AS720" s="2"/>
     </row>
-    <row r="721" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -34656,7 +34658,7 @@
       <c r="AR721" s="2"/>
       <c r="AS721" s="2"/>
     </row>
-    <row r="722" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -34703,7 +34705,7 @@
       <c r="AR722" s="2"/>
       <c r="AS722" s="2"/>
     </row>
-    <row r="723" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -34750,7 +34752,7 @@
       <c r="AR723" s="2"/>
       <c r="AS723" s="2"/>
     </row>
-    <row r="724" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -34797,7 +34799,7 @@
       <c r="AR724" s="2"/>
       <c r="AS724" s="2"/>
     </row>
-    <row r="725" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -34844,7 +34846,7 @@
       <c r="AR725" s="2"/>
       <c r="AS725" s="2"/>
     </row>
-    <row r="726" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -34891,7 +34893,7 @@
       <c r="AR726" s="2"/>
       <c r="AS726" s="2"/>
     </row>
-    <row r="727" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -34938,7 +34940,7 @@
       <c r="AR727" s="2"/>
       <c r="AS727" s="2"/>
     </row>
-    <row r="728" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -34985,7 +34987,7 @@
       <c r="AR728" s="2"/>
       <c r="AS728" s="2"/>
     </row>
-    <row r="729" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -35032,7 +35034,7 @@
       <c r="AR729" s="2"/>
       <c r="AS729" s="2"/>
     </row>
-    <row r="730" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -35079,7 +35081,7 @@
       <c r="AR730" s="2"/>
       <c r="AS730" s="2"/>
     </row>
-    <row r="731" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -35126,7 +35128,7 @@
       <c r="AR731" s="2"/>
       <c r="AS731" s="2"/>
     </row>
-    <row r="732" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -35173,7 +35175,7 @@
       <c r="AR732" s="2"/>
       <c r="AS732" s="2"/>
     </row>
-    <row r="733" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -35220,7 +35222,7 @@
       <c r="AR733" s="2"/>
       <c r="AS733" s="2"/>
     </row>
-    <row r="734" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -35267,7 +35269,7 @@
       <c r="AR734" s="2"/>
       <c r="AS734" s="2"/>
     </row>
-    <row r="735" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -35314,7 +35316,7 @@
       <c r="AR735" s="2"/>
       <c r="AS735" s="2"/>
     </row>
-    <row r="736" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -35361,7 +35363,7 @@
       <c r="AR736" s="2"/>
       <c r="AS736" s="2"/>
     </row>
-    <row r="737" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -35408,7 +35410,7 @@
       <c r="AR737" s="2"/>
       <c r="AS737" s="2"/>
     </row>
-    <row r="738" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -35455,7 +35457,7 @@
       <c r="AR738" s="2"/>
       <c r="AS738" s="2"/>
     </row>
-    <row r="739" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -35502,7 +35504,7 @@
       <c r="AR739" s="2"/>
       <c r="AS739" s="2"/>
     </row>
-    <row r="740" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -35549,7 +35551,7 @@
       <c r="AR740" s="2"/>
       <c r="AS740" s="2"/>
     </row>
-    <row r="741" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -35596,7 +35598,7 @@
       <c r="AR741" s="2"/>
       <c r="AS741" s="2"/>
     </row>
-    <row r="742" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -35643,7 +35645,7 @@
       <c r="AR742" s="2"/>
       <c r="AS742" s="2"/>
     </row>
-    <row r="743" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -35690,7 +35692,7 @@
       <c r="AR743" s="2"/>
       <c r="AS743" s="2"/>
     </row>
-    <row r="744" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -35737,7 +35739,7 @@
       <c r="AR744" s="2"/>
       <c r="AS744" s="2"/>
     </row>
-    <row r="745" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -35784,7 +35786,7 @@
       <c r="AR745" s="2"/>
       <c r="AS745" s="2"/>
     </row>
-    <row r="746" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -35831,7 +35833,7 @@
       <c r="AR746" s="2"/>
       <c r="AS746" s="2"/>
     </row>
-    <row r="747" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -35878,7 +35880,7 @@
       <c r="AR747" s="2"/>
       <c r="AS747" s="2"/>
     </row>
-    <row r="748" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -35925,7 +35927,7 @@
       <c r="AR748" s="2"/>
       <c r="AS748" s="2"/>
     </row>
-    <row r="749" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -35972,7 +35974,7 @@
       <c r="AR749" s="2"/>
       <c r="AS749" s="2"/>
     </row>
-    <row r="750" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -36019,7 +36021,7 @@
       <c r="AR750" s="2"/>
       <c r="AS750" s="2"/>
     </row>
-    <row r="751" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -36066,7 +36068,7 @@
       <c r="AR751" s="2"/>
       <c r="AS751" s="2"/>
     </row>
-    <row r="752" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -36113,7 +36115,7 @@
       <c r="AR752" s="2"/>
       <c r="AS752" s="2"/>
     </row>
-    <row r="753" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -36160,7 +36162,7 @@
       <c r="AR753" s="2"/>
       <c r="AS753" s="2"/>
     </row>
-    <row r="754" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -36207,7 +36209,7 @@
       <c r="AR754" s="2"/>
       <c r="AS754" s="2"/>
     </row>
-    <row r="755" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -36254,7 +36256,7 @@
       <c r="AR755" s="2"/>
       <c r="AS755" s="2"/>
     </row>
-    <row r="756" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -36301,7 +36303,7 @@
       <c r="AR756" s="2"/>
       <c r="AS756" s="2"/>
     </row>
-    <row r="757" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -36348,7 +36350,7 @@
       <c r="AR757" s="2"/>
       <c r="AS757" s="2"/>
     </row>
-    <row r="758" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -36395,7 +36397,7 @@
       <c r="AR758" s="2"/>
       <c r="AS758" s="2"/>
     </row>
-    <row r="759" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -36442,7 +36444,7 @@
       <c r="AR759" s="2"/>
       <c r="AS759" s="2"/>
     </row>
-    <row r="760" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -36489,7 +36491,7 @@
       <c r="AR760" s="2"/>
       <c r="AS760" s="2"/>
     </row>
-    <row r="761" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -36536,7 +36538,7 @@
       <c r="AR761" s="2"/>
       <c r="AS761" s="2"/>
     </row>
-    <row r="762" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -36583,7 +36585,7 @@
       <c r="AR762" s="2"/>
       <c r="AS762" s="2"/>
     </row>
-    <row r="763" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -36630,7 +36632,7 @@
       <c r="AR763" s="2"/>
       <c r="AS763" s="2"/>
     </row>
-    <row r="764" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -36677,7 +36679,7 @@
       <c r="AR764" s="2"/>
       <c r="AS764" s="2"/>
     </row>
-    <row r="765" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -36724,7 +36726,7 @@
       <c r="AR765" s="2"/>
       <c r="AS765" s="2"/>
     </row>
-    <row r="766" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -36771,7 +36773,7 @@
       <c r="AR766" s="2"/>
       <c r="AS766" s="2"/>
     </row>
-    <row r="767" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -36818,7 +36820,7 @@
       <c r="AR767" s="2"/>
       <c r="AS767" s="2"/>
     </row>
-    <row r="768" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -36865,7 +36867,7 @@
       <c r="AR768" s="2"/>
       <c r="AS768" s="2"/>
     </row>
-    <row r="769" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -36912,7 +36914,7 @@
       <c r="AR769" s="2"/>
       <c r="AS769" s="2"/>
     </row>
-    <row r="770" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -36959,7 +36961,7 @@
       <c r="AR770" s="2"/>
       <c r="AS770" s="2"/>
     </row>
-    <row r="771" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -37006,7 +37008,7 @@
       <c r="AR771" s="2"/>
       <c r="AS771" s="2"/>
     </row>
-    <row r="772" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -37053,7 +37055,7 @@
       <c r="AR772" s="2"/>
       <c r="AS772" s="2"/>
     </row>
-    <row r="773" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -37100,7 +37102,7 @@
       <c r="AR773" s="2"/>
       <c r="AS773" s="2"/>
     </row>
-    <row r="774" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -37147,7 +37149,7 @@
       <c r="AR774" s="2"/>
       <c r="AS774" s="2"/>
     </row>
-    <row r="775" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -37194,7 +37196,7 @@
       <c r="AR775" s="2"/>
       <c r="AS775" s="2"/>
     </row>
-    <row r="776" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -37241,7 +37243,7 @@
       <c r="AR776" s="2"/>
       <c r="AS776" s="2"/>
     </row>
-    <row r="777" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -37288,7 +37290,7 @@
       <c r="AR777" s="2"/>
       <c r="AS777" s="2"/>
     </row>
-    <row r="778" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -37335,7 +37337,7 @@
       <c r="AR778" s="2"/>
       <c r="AS778" s="2"/>
     </row>
-    <row r="779" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -37382,7 +37384,7 @@
       <c r="AR779" s="2"/>
       <c r="AS779" s="2"/>
     </row>
-    <row r="780" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -37429,7 +37431,7 @@
       <c r="AR780" s="2"/>
       <c r="AS780" s="2"/>
     </row>
-    <row r="781" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -37476,7 +37478,7 @@
       <c r="AR781" s="2"/>
       <c r="AS781" s="2"/>
     </row>
-    <row r="782" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -37523,7 +37525,7 @@
       <c r="AR782" s="2"/>
       <c r="AS782" s="2"/>
     </row>
-    <row r="783" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -37570,7 +37572,7 @@
       <c r="AR783" s="2"/>
       <c r="AS783" s="2"/>
     </row>
-    <row r="784" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -37617,7 +37619,7 @@
       <c r="AR784" s="2"/>
       <c r="AS784" s="2"/>
     </row>
-    <row r="785" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -37664,7 +37666,7 @@
       <c r="AR785" s="2"/>
       <c r="AS785" s="2"/>
     </row>
-    <row r="786" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -37711,7 +37713,7 @@
       <c r="AR786" s="2"/>
       <c r="AS786" s="2"/>
     </row>
-    <row r="787" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -37758,7 +37760,7 @@
       <c r="AR787" s="2"/>
       <c r="AS787" s="2"/>
     </row>
-    <row r="788" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -37805,7 +37807,7 @@
       <c r="AR788" s="2"/>
       <c r="AS788" s="2"/>
     </row>
-    <row r="789" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -37852,7 +37854,7 @@
       <c r="AR789" s="2"/>
       <c r="AS789" s="2"/>
     </row>
-    <row r="790" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -37899,7 +37901,7 @@
       <c r="AR790" s="2"/>
       <c r="AS790" s="2"/>
     </row>
-    <row r="791" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -37946,7 +37948,7 @@
       <c r="AR791" s="2"/>
       <c r="AS791" s="2"/>
     </row>
-    <row r="792" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -37993,7 +37995,7 @@
       <c r="AR792" s="2"/>
       <c r="AS792" s="2"/>
     </row>
-    <row r="793" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -38040,7 +38042,7 @@
       <c r="AR793" s="2"/>
       <c r="AS793" s="2"/>
     </row>
-    <row r="794" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -38087,7 +38089,7 @@
       <c r="AR794" s="2"/>
       <c r="AS794" s="2"/>
     </row>
-    <row r="795" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -38134,7 +38136,7 @@
       <c r="AR795" s="2"/>
       <c r="AS795" s="2"/>
     </row>
-    <row r="796" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -38181,7 +38183,7 @@
       <c r="AR796" s="2"/>
       <c r="AS796" s="2"/>
     </row>
-    <row r="797" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -38228,7 +38230,7 @@
       <c r="AR797" s="2"/>
       <c r="AS797" s="2"/>
     </row>
-    <row r="798" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -38275,7 +38277,7 @@
       <c r="AR798" s="2"/>
       <c r="AS798" s="2"/>
     </row>
-    <row r="799" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -38322,7 +38324,7 @@
       <c r="AR799" s="2"/>
       <c r="AS799" s="2"/>
     </row>
-    <row r="800" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -38369,7 +38371,7 @@
       <c r="AR800" s="2"/>
       <c r="AS800" s="2"/>
     </row>
-    <row r="801" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -38416,7 +38418,7 @@
       <c r="AR801" s="2"/>
       <c r="AS801" s="2"/>
     </row>
-    <row r="802" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -38463,7 +38465,7 @@
       <c r="AR802" s="2"/>
       <c r="AS802" s="2"/>
     </row>
-    <row r="803" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -38510,7 +38512,7 @@
       <c r="AR803" s="2"/>
       <c r="AS803" s="2"/>
     </row>
-    <row r="804" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -38557,7 +38559,7 @@
       <c r="AR804" s="2"/>
       <c r="AS804" s="2"/>
     </row>
-    <row r="805" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -38604,7 +38606,7 @@
       <c r="AR805" s="2"/>
       <c r="AS805" s="2"/>
     </row>
-    <row r="806" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -38651,7 +38653,7 @@
       <c r="AR806" s="2"/>
       <c r="AS806" s="2"/>
     </row>
-    <row r="807" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -38698,7 +38700,7 @@
       <c r="AR807" s="2"/>
       <c r="AS807" s="2"/>
     </row>
-    <row r="808" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -38745,7 +38747,7 @@
       <c r="AR808" s="2"/>
       <c r="AS808" s="2"/>
     </row>
-    <row r="809" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -38792,7 +38794,7 @@
       <c r="AR809" s="2"/>
       <c r="AS809" s="2"/>
     </row>
-    <row r="810" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -38839,7 +38841,7 @@
       <c r="AR810" s="2"/>
       <c r="AS810" s="2"/>
     </row>
-    <row r="811" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -38886,7 +38888,7 @@
       <c r="AR811" s="2"/>
       <c r="AS811" s="2"/>
     </row>
-    <row r="812" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -38933,7 +38935,7 @@
       <c r="AR812" s="2"/>
       <c r="AS812" s="2"/>
     </row>
-    <row r="813" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -38980,7 +38982,7 @@
       <c r="AR813" s="2"/>
       <c r="AS813" s="2"/>
     </row>
-    <row r="814" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -39027,7 +39029,7 @@
       <c r="AR814" s="2"/>
       <c r="AS814" s="2"/>
     </row>
-    <row r="815" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -39074,7 +39076,7 @@
       <c r="AR815" s="2"/>
       <c r="AS815" s="2"/>
     </row>
-    <row r="816" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -39121,7 +39123,7 @@
       <c r="AR816" s="2"/>
       <c r="AS816" s="2"/>
     </row>
-    <row r="817" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -39168,7 +39170,7 @@
       <c r="AR817" s="2"/>
       <c r="AS817" s="2"/>
     </row>
-    <row r="818" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -39215,7 +39217,7 @@
       <c r="AR818" s="2"/>
       <c r="AS818" s="2"/>
     </row>
-    <row r="819" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -39262,7 +39264,7 @@
       <c r="AR819" s="2"/>
       <c r="AS819" s="2"/>
     </row>
-    <row r="820" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -39309,7 +39311,7 @@
       <c r="AR820" s="2"/>
       <c r="AS820" s="2"/>
     </row>
-    <row r="821" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -39356,7 +39358,7 @@
       <c r="AR821" s="2"/>
       <c r="AS821" s="2"/>
     </row>
-    <row r="822" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -39403,7 +39405,7 @@
       <c r="AR822" s="2"/>
       <c r="AS822" s="2"/>
     </row>
-    <row r="823" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -39450,7 +39452,7 @@
       <c r="AR823" s="2"/>
       <c r="AS823" s="2"/>
     </row>
-    <row r="824" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -39497,7 +39499,7 @@
       <c r="AR824" s="2"/>
       <c r="AS824" s="2"/>
     </row>
-    <row r="825" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -39544,7 +39546,7 @@
       <c r="AR825" s="2"/>
       <c r="AS825" s="2"/>
     </row>
-    <row r="826" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -39591,7 +39593,7 @@
       <c r="AR826" s="2"/>
       <c r="AS826" s="2"/>
     </row>
-    <row r="827" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -39638,7 +39640,7 @@
       <c r="AR827" s="2"/>
       <c r="AS827" s="2"/>
     </row>
-    <row r="828" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -39685,7 +39687,7 @@
       <c r="AR828" s="2"/>
       <c r="AS828" s="2"/>
     </row>
-    <row r="829" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -39732,7 +39734,7 @@
       <c r="AR829" s="2"/>
       <c r="AS829" s="2"/>
     </row>
-    <row r="830" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -39779,7 +39781,7 @@
       <c r="AR830" s="2"/>
       <c r="AS830" s="2"/>
     </row>
-    <row r="831" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -39826,7 +39828,7 @@
       <c r="AR831" s="2"/>
       <c r="AS831" s="2"/>
     </row>
-    <row r="832" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -39873,7 +39875,7 @@
       <c r="AR832" s="2"/>
       <c r="AS832" s="2"/>
     </row>
-    <row r="833" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -39920,7 +39922,7 @@
       <c r="AR833" s="2"/>
       <c r="AS833" s="2"/>
     </row>
-    <row r="834" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -39967,7 +39969,7 @@
       <c r="AR834" s="2"/>
       <c r="AS834" s="2"/>
     </row>
-    <row r="835" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -40014,7 +40016,7 @@
       <c r="AR835" s="2"/>
       <c r="AS835" s="2"/>
     </row>
-    <row r="836" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -40061,7 +40063,7 @@
       <c r="AR836" s="2"/>
       <c r="AS836" s="2"/>
     </row>
-    <row r="837" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -40108,7 +40110,7 @@
       <c r="AR837" s="2"/>
       <c r="AS837" s="2"/>
     </row>
-    <row r="838" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -40155,7 +40157,7 @@
       <c r="AR838" s="2"/>
       <c r="AS838" s="2"/>
     </row>
-    <row r="839" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -40202,7 +40204,7 @@
       <c r="AR839" s="2"/>
       <c r="AS839" s="2"/>
     </row>
-    <row r="840" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -40249,7 +40251,7 @@
       <c r="AR840" s="2"/>
       <c r="AS840" s="2"/>
     </row>
-    <row r="841" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -40296,7 +40298,7 @@
       <c r="AR841" s="2"/>
       <c r="AS841" s="2"/>
     </row>
-    <row r="842" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -40343,7 +40345,7 @@
       <c r="AR842" s="2"/>
       <c r="AS842" s="2"/>
     </row>
-    <row r="843" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -40390,7 +40392,7 @@
       <c r="AR843" s="2"/>
       <c r="AS843" s="2"/>
     </row>
-    <row r="844" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -40437,7 +40439,7 @@
       <c r="AR844" s="2"/>
       <c r="AS844" s="2"/>
     </row>
-    <row r="845" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -40484,7 +40486,7 @@
       <c r="AR845" s="2"/>
       <c r="AS845" s="2"/>
     </row>
-    <row r="846" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -40531,7 +40533,7 @@
       <c r="AR846" s="2"/>
       <c r="AS846" s="2"/>
     </row>
-    <row r="847" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -40578,7 +40580,7 @@
       <c r="AR847" s="2"/>
       <c r="AS847" s="2"/>
     </row>
-    <row r="848" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -40625,7 +40627,7 @@
       <c r="AR848" s="2"/>
       <c r="AS848" s="2"/>
     </row>
-    <row r="849" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -40672,7 +40674,7 @@
       <c r="AR849" s="2"/>
       <c r="AS849" s="2"/>
     </row>
-    <row r="850" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -40719,7 +40721,7 @@
       <c r="AR850" s="2"/>
       <c r="AS850" s="2"/>
     </row>
-    <row r="851" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -40766,7 +40768,7 @@
       <c r="AR851" s="2"/>
       <c r="AS851" s="2"/>
     </row>
-    <row r="852" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -40813,7 +40815,7 @@
       <c r="AR852" s="2"/>
       <c r="AS852" s="2"/>
     </row>
-    <row r="853" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -40860,7 +40862,7 @@
       <c r="AR853" s="2"/>
       <c r="AS853" s="2"/>
     </row>
-    <row r="854" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -40907,7 +40909,7 @@
       <c r="AR854" s="2"/>
       <c r="AS854" s="2"/>
     </row>
-    <row r="855" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -40954,7 +40956,7 @@
       <c r="AR855" s="2"/>
       <c r="AS855" s="2"/>
     </row>
-    <row r="856" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -41001,7 +41003,7 @@
       <c r="AR856" s="2"/>
       <c r="AS856" s="2"/>
     </row>
-    <row r="857" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -41048,7 +41050,7 @@
       <c r="AR857" s="2"/>
       <c r="AS857" s="2"/>
     </row>
-    <row r="858" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -41095,7 +41097,7 @@
       <c r="AR858" s="2"/>
       <c r="AS858" s="2"/>
     </row>
-    <row r="859" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -41142,7 +41144,7 @@
       <c r="AR859" s="2"/>
       <c r="AS859" s="2"/>
     </row>
-    <row r="860" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -41189,7 +41191,7 @@
       <c r="AR860" s="2"/>
       <c r="AS860" s="2"/>
     </row>
-    <row r="861" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -41236,7 +41238,7 @@
       <c r="AR861" s="2"/>
       <c r="AS861" s="2"/>
     </row>
-    <row r="862" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -41283,7 +41285,7 @@
       <c r="AR862" s="2"/>
       <c r="AS862" s="2"/>
     </row>
-    <row r="863" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -41330,7 +41332,7 @@
       <c r="AR863" s="2"/>
       <c r="AS863" s="2"/>
     </row>
-    <row r="864" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -41377,7 +41379,7 @@
       <c r="AR864" s="2"/>
       <c r="AS864" s="2"/>
     </row>
-    <row r="865" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -41424,7 +41426,7 @@
       <c r="AR865" s="2"/>
       <c r="AS865" s="2"/>
     </row>
-    <row r="866" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -41471,7 +41473,7 @@
       <c r="AR866" s="2"/>
       <c r="AS866" s="2"/>
     </row>
-    <row r="867" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -41518,7 +41520,7 @@
       <c r="AR867" s="2"/>
       <c r="AS867" s="2"/>
     </row>
-    <row r="868" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -41565,7 +41567,7 @@
       <c r="AR868" s="2"/>
       <c r="AS868" s="2"/>
     </row>
-    <row r="869" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -41612,7 +41614,7 @@
       <c r="AR869" s="2"/>
       <c r="AS869" s="2"/>
     </row>
-    <row r="870" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -41659,7 +41661,7 @@
       <c r="AR870" s="2"/>
       <c r="AS870" s="2"/>
     </row>
-    <row r="871" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -41706,7 +41708,7 @@
       <c r="AR871" s="2"/>
       <c r="AS871" s="2"/>
     </row>
-    <row r="872" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -41753,7 +41755,7 @@
       <c r="AR872" s="2"/>
       <c r="AS872" s="2"/>
     </row>
-    <row r="873" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -41800,7 +41802,7 @@
       <c r="AR873" s="2"/>
       <c r="AS873" s="2"/>
     </row>
-    <row r="874" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -41847,7 +41849,7 @@
       <c r="AR874" s="2"/>
       <c r="AS874" s="2"/>
     </row>
-    <row r="875" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -41894,7 +41896,7 @@
       <c r="AR875" s="2"/>
       <c r="AS875" s="2"/>
     </row>
-    <row r="876" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -41941,7 +41943,7 @@
       <c r="AR876" s="2"/>
       <c r="AS876" s="2"/>
     </row>
-    <row r="877" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -41988,7 +41990,7 @@
       <c r="AR877" s="2"/>
       <c r="AS877" s="2"/>
     </row>
-    <row r="878" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -42035,7 +42037,7 @@
       <c r="AR878" s="2"/>
       <c r="AS878" s="2"/>
     </row>
-    <row r="879" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -42082,7 +42084,7 @@
       <c r="AR879" s="2"/>
       <c r="AS879" s="2"/>
     </row>
-    <row r="880" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -42129,7 +42131,7 @@
       <c r="AR880" s="2"/>
       <c r="AS880" s="2"/>
     </row>
-    <row r="881" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -42176,7 +42178,7 @@
       <c r="AR881" s="2"/>
       <c r="AS881" s="2"/>
     </row>
-    <row r="882" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -42223,7 +42225,7 @@
       <c r="AR882" s="2"/>
       <c r="AS882" s="2"/>
     </row>
-    <row r="883" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -42270,7 +42272,7 @@
       <c r="AR883" s="2"/>
       <c r="AS883" s="2"/>
     </row>
-    <row r="884" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -42317,7 +42319,7 @@
       <c r="AR884" s="2"/>
       <c r="AS884" s="2"/>
     </row>
-    <row r="885" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -42364,7 +42366,7 @@
       <c r="AR885" s="2"/>
       <c r="AS885" s="2"/>
     </row>
-    <row r="886" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -42411,7 +42413,7 @@
       <c r="AR886" s="2"/>
       <c r="AS886" s="2"/>
     </row>
-    <row r="887" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -42458,7 +42460,7 @@
       <c r="AR887" s="2"/>
       <c r="AS887" s="2"/>
     </row>
-    <row r="888" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -42505,7 +42507,7 @@
       <c r="AR888" s="2"/>
       <c r="AS888" s="2"/>
     </row>
-    <row r="889" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -42552,7 +42554,7 @@
       <c r="AR889" s="2"/>
       <c r="AS889" s="2"/>
     </row>
-    <row r="890" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -42599,7 +42601,7 @@
       <c r="AR890" s="2"/>
       <c r="AS890" s="2"/>
     </row>
-    <row r="891" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -42646,7 +42648,7 @@
       <c r="AR891" s="2"/>
       <c r="AS891" s="2"/>
     </row>
-    <row r="892" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -42693,7 +42695,7 @@
       <c r="AR892" s="2"/>
       <c r="AS892" s="2"/>
     </row>
-    <row r="893" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -42740,7 +42742,7 @@
       <c r="AR893" s="2"/>
       <c r="AS893" s="2"/>
     </row>
-    <row r="894" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -42787,7 +42789,7 @@
       <c r="AR894" s="2"/>
       <c r="AS894" s="2"/>
     </row>
-    <row r="895" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -42834,7 +42836,7 @@
       <c r="AR895" s="2"/>
       <c r="AS895" s="2"/>
     </row>
-    <row r="896" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -42881,7 +42883,7 @@
       <c r="AR896" s="2"/>
       <c r="AS896" s="2"/>
     </row>
-    <row r="897" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -42928,7 +42930,7 @@
       <c r="AR897" s="2"/>
       <c r="AS897" s="2"/>
     </row>
-    <row r="898" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -42975,7 +42977,7 @@
       <c r="AR898" s="2"/>
       <c r="AS898" s="2"/>
     </row>
-    <row r="899" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -43022,7 +43024,7 @@
       <c r="AR899" s="2"/>
       <c r="AS899" s="2"/>
     </row>
-    <row r="900" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -43069,7 +43071,7 @@
       <c r="AR900" s="2"/>
       <c r="AS900" s="2"/>
     </row>
-    <row r="901" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -43116,7 +43118,7 @@
       <c r="AR901" s="2"/>
       <c r="AS901" s="2"/>
     </row>
-    <row r="902" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -43163,7 +43165,7 @@
       <c r="AR902" s="2"/>
       <c r="AS902" s="2"/>
     </row>
-    <row r="903" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -43210,7 +43212,7 @@
       <c r="AR903" s="2"/>
       <c r="AS903" s="2"/>
     </row>
-    <row r="904" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -43257,7 +43259,7 @@
       <c r="AR904" s="2"/>
       <c r="AS904" s="2"/>
     </row>
-    <row r="905" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -43304,7 +43306,7 @@
       <c r="AR905" s="2"/>
       <c r="AS905" s="2"/>
     </row>
-    <row r="906" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -43351,7 +43353,7 @@
       <c r="AR906" s="2"/>
       <c r="AS906" s="2"/>
     </row>
-    <row r="907" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -43398,7 +43400,7 @@
       <c r="AR907" s="2"/>
       <c r="AS907" s="2"/>
     </row>
-    <row r="908" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -43445,7 +43447,7 @@
       <c r="AR908" s="2"/>
       <c r="AS908" s="2"/>
     </row>
-    <row r="909" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -43492,7 +43494,7 @@
       <c r="AR909" s="2"/>
       <c r="AS909" s="2"/>
     </row>
-    <row r="910" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -43539,7 +43541,7 @@
       <c r="AR910" s="2"/>
       <c r="AS910" s="2"/>
     </row>
-    <row r="911" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -43586,7 +43588,7 @@
       <c r="AR911" s="2"/>
       <c r="AS911" s="2"/>
     </row>
-    <row r="912" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -43633,7 +43635,7 @@
       <c r="AR912" s="2"/>
       <c r="AS912" s="2"/>
     </row>
-    <row r="913" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -43680,7 +43682,7 @@
       <c r="AR913" s="2"/>
       <c r="AS913" s="2"/>
     </row>
-    <row r="914" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -43727,7 +43729,7 @@
       <c r="AR914" s="2"/>
       <c r="AS914" s="2"/>
     </row>
-    <row r="915" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -43774,7 +43776,7 @@
       <c r="AR915" s="2"/>
       <c r="AS915" s="2"/>
     </row>
-    <row r="916" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -43821,7 +43823,7 @@
       <c r="AR916" s="2"/>
       <c r="AS916" s="2"/>
     </row>
-    <row r="917" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -43868,7 +43870,7 @@
       <c r="AR917" s="2"/>
       <c r="AS917" s="2"/>
     </row>
-    <row r="918" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -43915,7 +43917,7 @@
       <c r="AR918" s="2"/>
       <c r="AS918" s="2"/>
     </row>
-    <row r="919" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -43962,7 +43964,7 @@
       <c r="AR919" s="2"/>
       <c r="AS919" s="2"/>
     </row>
-    <row r="920" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -44009,7 +44011,7 @@
       <c r="AR920" s="2"/>
       <c r="AS920" s="2"/>
     </row>
-    <row r="921" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -44056,7 +44058,7 @@
       <c r="AR921" s="2"/>
       <c r="AS921" s="2"/>
     </row>
-    <row r="922" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -44103,7 +44105,7 @@
       <c r="AR922" s="2"/>
       <c r="AS922" s="2"/>
     </row>
-    <row r="923" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -44150,7 +44152,7 @@
       <c r="AR923" s="2"/>
       <c r="AS923" s="2"/>
     </row>
-    <row r="924" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -44197,7 +44199,7 @@
       <c r="AR924" s="2"/>
       <c r="AS924" s="2"/>
     </row>
-    <row r="925" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -44244,7 +44246,7 @@
       <c r="AR925" s="2"/>
       <c r="AS925" s="2"/>
     </row>
-    <row r="926" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -44291,7 +44293,7 @@
       <c r="AR926" s="2"/>
       <c r="AS926" s="2"/>
     </row>
-    <row r="927" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -44338,7 +44340,7 @@
       <c r="AR927" s="2"/>
       <c r="AS927" s="2"/>
     </row>
-    <row r="928" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -44385,7 +44387,7 @@
       <c r="AR928" s="2"/>
       <c r="AS928" s="2"/>
     </row>
-    <row r="929" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -44432,7 +44434,7 @@
       <c r="AR929" s="2"/>
       <c r="AS929" s="2"/>
     </row>
-    <row r="930" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -44479,7 +44481,7 @@
       <c r="AR930" s="2"/>
       <c r="AS930" s="2"/>
     </row>
-    <row r="931" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -44526,7 +44528,7 @@
       <c r="AR931" s="2"/>
       <c r="AS931" s="2"/>
     </row>
-    <row r="932" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -44573,7 +44575,7 @@
       <c r="AR932" s="2"/>
       <c r="AS932" s="2"/>
     </row>
-    <row r="933" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -44620,7 +44622,7 @@
       <c r="AR933" s="2"/>
       <c r="AS933" s="2"/>
     </row>
-    <row r="934" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -44667,7 +44669,7 @@
       <c r="AR934" s="2"/>
       <c r="AS934" s="2"/>
     </row>
-    <row r="935" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -44714,7 +44716,7 @@
       <c r="AR935" s="2"/>
       <c r="AS935" s="2"/>
     </row>
-    <row r="936" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -44761,7 +44763,7 @@
       <c r="AR936" s="2"/>
       <c r="AS936" s="2"/>
     </row>
-    <row r="937" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -44808,7 +44810,7 @@
       <c r="AR937" s="2"/>
       <c r="AS937" s="2"/>
     </row>
-    <row r="938" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -44855,7 +44857,7 @@
       <c r="AR938" s="2"/>
       <c r="AS938" s="2"/>
     </row>
-    <row r="939" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -44902,7 +44904,7 @@
       <c r="AR939" s="2"/>
       <c r="AS939" s="2"/>
     </row>
-    <row r="940" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -44949,7 +44951,7 @@
       <c r="AR940" s="2"/>
       <c r="AS940" s="2"/>
     </row>
-    <row r="941" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -44996,7 +44998,7 @@
       <c r="AR941" s="2"/>
       <c r="AS941" s="2"/>
     </row>
-    <row r="942" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -45043,7 +45045,7 @@
       <c r="AR942" s="2"/>
       <c r="AS942" s="2"/>
     </row>
-    <row r="943" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -45090,7 +45092,7 @@
       <c r="AR943" s="2"/>
       <c r="AS943" s="2"/>
     </row>
-    <row r="944" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -45137,7 +45139,7 @@
       <c r="AR944" s="2"/>
       <c r="AS944" s="2"/>
     </row>
-    <row r="945" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -45184,7 +45186,7 @@
       <c r="AR945" s="2"/>
       <c r="AS945" s="2"/>
     </row>
-    <row r="946" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -45231,7 +45233,7 @@
       <c r="AR946" s="2"/>
       <c r="AS946" s="2"/>
     </row>
-    <row r="947" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -45278,7 +45280,7 @@
       <c r="AR947" s="2"/>
       <c r="AS947" s="2"/>
     </row>
-    <row r="948" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -45325,7 +45327,7 @@
       <c r="AR948" s="2"/>
       <c r="AS948" s="2"/>
     </row>
-    <row r="949" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -45372,7 +45374,7 @@
       <c r="AR949" s="2"/>
       <c r="AS949" s="2"/>
     </row>
-    <row r="950" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -45419,7 +45421,7 @@
       <c r="AR950" s="2"/>
       <c r="AS950" s="2"/>
     </row>
-    <row r="951" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -45466,7 +45468,7 @@
       <c r="AR951" s="2"/>
       <c r="AS951" s="2"/>
     </row>
-    <row r="952" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -45513,7 +45515,7 @@
       <c r="AR952" s="2"/>
       <c r="AS952" s="2"/>
     </row>
-    <row r="953" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -45560,7 +45562,7 @@
       <c r="AR953" s="2"/>
       <c r="AS953" s="2"/>
     </row>
-    <row r="954" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -45607,7 +45609,7 @@
       <c r="AR954" s="2"/>
       <c r="AS954" s="2"/>
     </row>
-    <row r="955" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -45654,7 +45656,7 @@
       <c r="AR955" s="2"/>
       <c r="AS955" s="2"/>
     </row>
-    <row r="956" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -45701,7 +45703,7 @@
       <c r="AR956" s="2"/>
       <c r="AS956" s="2"/>
     </row>
-    <row r="957" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -45748,7 +45750,7 @@
       <c r="AR957" s="2"/>
       <c r="AS957" s="2"/>
     </row>
-    <row r="958" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -45795,7 +45797,7 @@
       <c r="AR958" s="2"/>
       <c r="AS958" s="2"/>
     </row>
-    <row r="959" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -45842,7 +45844,7 @@
       <c r="AR959" s="2"/>
       <c r="AS959" s="2"/>
     </row>
-    <row r="960" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -45889,7 +45891,7 @@
       <c r="AR960" s="2"/>
       <c r="AS960" s="2"/>
     </row>
-    <row r="961" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -45936,7 +45938,7 @@
       <c r="AR961" s="2"/>
       <c r="AS961" s="2"/>
     </row>
-    <row r="962" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -45983,7 +45985,7 @@
       <c r="AR962" s="2"/>
       <c r="AS962" s="2"/>
     </row>
-    <row r="963" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -46030,7 +46032,7 @@
       <c r="AR963" s="2"/>
       <c r="AS963" s="2"/>
     </row>
-    <row r="964" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -46077,7 +46079,7 @@
       <c r="AR964" s="2"/>
       <c r="AS964" s="2"/>
     </row>
-    <row r="965" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -46124,7 +46126,7 @@
       <c r="AR965" s="2"/>
       <c r="AS965" s="2"/>
     </row>
-    <row r="966" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -46171,7 +46173,7 @@
       <c r="AR966" s="2"/>
       <c r="AS966" s="2"/>
     </row>
-    <row r="967" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -46218,7 +46220,7 @@
       <c r="AR967" s="2"/>
       <c r="AS967" s="2"/>
     </row>
-    <row r="968" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -46265,7 +46267,7 @@
       <c r="AR968" s="2"/>
       <c r="AS968" s="2"/>
     </row>
-    <row r="969" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -46312,7 +46314,7 @@
       <c r="AR969" s="2"/>
       <c r="AS969" s="2"/>
     </row>
-    <row r="970" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -46359,7 +46361,7 @@
       <c r="AR970" s="2"/>
       <c r="AS970" s="2"/>
     </row>
-    <row r="971" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -46406,7 +46408,7 @@
       <c r="AR971" s="2"/>
       <c r="AS971" s="2"/>
     </row>
-    <row r="972" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -46453,7 +46455,7 @@
       <c r="AR972" s="2"/>
       <c r="AS972" s="2"/>
     </row>
-    <row r="973" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -46500,7 +46502,7 @@
       <c r="AR973" s="2"/>
       <c r="AS973" s="2"/>
     </row>
-    <row r="974" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -46547,7 +46549,7 @@
       <c r="AR974" s="2"/>
       <c r="AS974" s="2"/>
     </row>
-    <row r="975" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -46594,7 +46596,7 @@
       <c r="AR975" s="2"/>
       <c r="AS975" s="2"/>
     </row>
-    <row r="976" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -46641,7 +46643,7 @@
       <c r="AR976" s="2"/>
       <c r="AS976" s="2"/>
     </row>
-    <row r="977" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -46688,7 +46690,7 @@
       <c r="AR977" s="2"/>
       <c r="AS977" s="2"/>
     </row>
-    <row r="978" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -46735,7 +46737,7 @@
       <c r="AR978" s="2"/>
       <c r="AS978" s="2"/>
     </row>
-    <row r="979" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -46782,7 +46784,7 @@
       <c r="AR979" s="2"/>
       <c r="AS979" s="2"/>
     </row>
-    <row r="980" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -46829,7 +46831,7 @@
       <c r="AR980" s="2"/>
       <c r="AS980" s="2"/>
     </row>
-    <row r="981" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -46876,7 +46878,7 @@
       <c r="AR981" s="2"/>
       <c r="AS981" s="2"/>
     </row>
-    <row r="982" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -46923,7 +46925,7 @@
       <c r="AR982" s="2"/>
       <c r="AS982" s="2"/>
     </row>
-    <row r="983" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -46970,7 +46972,7 @@
       <c r="AR983" s="2"/>
       <c r="AS983" s="2"/>
     </row>
-    <row r="984" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -47017,7 +47019,7 @@
       <c r="AR984" s="2"/>
       <c r="AS984" s="2"/>
     </row>
-    <row r="985" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -47064,7 +47066,7 @@
       <c r="AR985" s="2"/>
       <c r="AS985" s="2"/>
     </row>
-    <row r="986" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -47111,7 +47113,7 @@
       <c r="AR986" s="2"/>
       <c r="AS986" s="2"/>
     </row>
-    <row r="987" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -47158,7 +47160,7 @@
       <c r="AR987" s="2"/>
       <c r="AS987" s="2"/>
     </row>
-    <row r="988" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -47205,7 +47207,7 @@
       <c r="AR988" s="2"/>
       <c r="AS988" s="2"/>
     </row>
-    <row r="989" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -47252,7 +47254,7 @@
       <c r="AR989" s="2"/>
       <c r="AS989" s="2"/>
     </row>
-    <row r="990" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -47299,7 +47301,7 @@
       <c r="AR990" s="2"/>
       <c r="AS990" s="2"/>
     </row>
-    <row r="991" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -47346,7 +47348,7 @@
       <c r="AR991" s="2"/>
       <c r="AS991" s="2"/>
     </row>
-    <row r="992" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -47393,7 +47395,7 @@
       <c r="AR992" s="2"/>
       <c r="AS992" s="2"/>
     </row>
-    <row r="993" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -47440,7 +47442,7 @@
       <c r="AR993" s="2"/>
       <c r="AS993" s="2"/>
     </row>
-    <row r="994" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -47487,7 +47489,7 @@
       <c r="AR994" s="2"/>
       <c r="AS994" s="2"/>
     </row>
-    <row r="995" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -47534,7 +47536,7 @@
       <c r="AR995" s="2"/>
       <c r="AS995" s="2"/>
     </row>
-    <row r="996" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>

--- a/Data Files/Input Validation/08. selecttype/Auto_SelectType_C9.xlsx
+++ b/Data Files/Input Validation/08. selecttype/Auto_SelectType_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Input Validation\08. selecttype\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C411BE-EFC5-4BC2-A590-D61B0F86C5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADFB59F-14BA-4B6F-A7E0-EE7589C7B953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -213,10 +213,10 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2023-08-22</t>
   </si>
   <si>
-    <t>2023-08-22</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>
@@ -776,14 +776,14 @@
         <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>

--- a/Data Files/Input Validation/08. selecttype/Auto_SelectType_C9.xlsx
+++ b/Data Files/Input Validation/08. selecttype/Auto_SelectType_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADFB59F-14BA-4B6F-A7E0-EE7589C7B953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73C8DD6-3462-4A46-BBEC-5C76F1140518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
     <t>2023-08-22</t>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -291,9 +291,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -331,7 +331,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -437,7 +437,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -579,7 +579,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -591,7 +591,7 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Files/Input Validation/08. selecttype/Auto_SelectType_C9.xlsx
+++ b/Data Files/Input Validation/08. selecttype/Auto_SelectType_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0295156-F407-41AD-B766-34F53FB25339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B865BB-8625-49FF-A5B4-30913AF18322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -147,9 +147,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>TGH-52H-TGNM</t>
-  </si>
-  <si>
     <t>2023-12-31</t>
   </si>
   <si>
@@ -216,7 +213,10 @@
     <t>2023-08-22</t>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>a5lk0a-tlk6uhc</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -291,9 +291,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -331,7 +331,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -437,7 +437,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -579,7 +579,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -591,7 +591,7 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +658,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -770,65 +770,65 @@
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
@@ -836,31 +836,31 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="AI2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" s="3"/>
       <c r="AO2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>

--- a/Data Files/Input Validation/08. selecttype/Auto_SelectType_C9.xlsx
+++ b/Data Files/Input Validation/08. selecttype/Auto_SelectType_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B865BB-8625-49FF-A5B4-30913AF18322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BFD1B4-F887-4097-A243-036EB7BD9558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
     <t>a5lk0a-tlk6uhc</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/08. selecttype/Auto_SelectType_C9.xlsx
+++ b/Data Files/Input Validation/08. selecttype/Auto_SelectType_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BFD1B4-F887-4097-A243-036EB7BD9558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071CC135-2397-40B1-9FA0-2BBEFFC2FF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
     <t>a5lk0a-tlk6uhc</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
